--- a/files/Translations.xlsx
+++ b/files/Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="626">
   <si>
     <t>TranslateId</t>
   </si>
@@ -126,9 +126,6 @@
     <t>new user</t>
   </si>
   <si>
-    <t>novi kosinik</t>
-  </si>
-  <si>
     <t>logout</t>
   </si>
   <si>
@@ -840,9 +837,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>ulica I broj</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -903,9 +897,6 @@
     <t>u ovoj kombinaciji mora biti iskljućen</t>
   </si>
   <si>
-    <t>odagrana kombinacija obroka u jelovniku nije dozvoljena</t>
-  </si>
-  <si>
     <t>your account has expired</t>
   </si>
   <si>
@@ -1095,9 +1086,6 @@
     <t>there is already a menu with the same name</t>
   </si>
   <si>
-    <t>već postoji jelovnik sa istim imenom</t>
-  </si>
-  <si>
     <t>you do not have permission to open this file</t>
   </si>
   <si>
@@ -1341,9 +1329,6 @@
     <t>cjenik</t>
   </si>
   <si>
-    <t>parćenje natropometrijskih parametara</t>
-  </si>
-  <si>
     <t>tracking of anthropometric measures</t>
   </si>
   <si>
@@ -1656,27 +1641,15 @@
     <t>profil korisnika</t>
   </si>
   <si>
-    <t>novi kosinus</t>
-  </si>
-  <si>
     <t>aktivirajte punu verziju</t>
   </si>
   <si>
-    <t>dodatna potrošnja energije</t>
-  </si>
-  <si>
-    <t>ukupna potrošnja energije</t>
-  </si>
-  <si>
     <t>indeks telesne mase</t>
   </si>
   <si>
     <t>obim struka</t>
   </si>
   <si>
-    <t>ulaz energije</t>
-  </si>
-  <si>
     <t>nazad</t>
   </si>
   <si>
@@ -1689,9 +1662,6 @@
     <t>datum merenja</t>
   </si>
   <si>
-    <t>štampanje</t>
-  </si>
-  <si>
     <t>ugljeni hidrati</t>
   </si>
   <si>
@@ -1701,9 +1671,6 @@
     <t>korisnicko ime</t>
   </si>
   <si>
-    <t>izaberite jezik</t>
-  </si>
-  <si>
     <t>raspored energetskih vrijednosti po obroku</t>
   </si>
   <si>
@@ -1713,18 +1680,12 @@
     <t>tabele</t>
   </si>
   <si>
-    <t>druga hrana</t>
-  </si>
-  <si>
     <t>holesterol</t>
   </si>
   <si>
     <t>mleko</t>
   </si>
   <si>
-    <t>skrob</t>
-  </si>
-  <si>
     <t>natrijum</t>
   </si>
   <si>
@@ -1743,144 +1704,42 @@
     <t>hlor</t>
   </si>
   <si>
-    <t>kolicina</t>
-  </si>
-  <si>
-    <t>grupa hrane</t>
-  </si>
-  <si>
     <t>dodajte novog korisnika</t>
   </si>
   <si>
-    <t>porudžbina</t>
-  </si>
-  <si>
     <t>kupovina</t>
   </si>
   <si>
-    <t>vaš nalog c´e biti aktivan u roku od 24 sata od primanja vašeg plac´anja ili nakon što nam pošaljete potvrdu o plac´anju</t>
-  </si>
-  <si>
-    <t>podatke za plac´anje na žiro racun</t>
-  </si>
-  <si>
-    <t>obrazac za dobijanje</t>
-  </si>
-  <si>
-    <t>fizicka osoba</t>
-  </si>
-  <si>
     <t>pravno lice</t>
   </si>
   <si>
-    <t>kompanija</t>
-  </si>
-  <si>
     <t>ulicu i broj</t>
   </si>
   <si>
-    <t>neke funkcije su onemoguc´ene</t>
-  </si>
-  <si>
-    <t>ukusna kombinacija jela u meniju nije dozvoljena</t>
-  </si>
-  <si>
-    <t>u ovoj kombinaciji moraju biti iskljuceni</t>
-  </si>
-  <si>
     <t>vaš racun je istekao</t>
   </si>
   <si>
-    <t>pogrešno ime ili lozinka</t>
-  </si>
-  <si>
     <t>korisnik nije pronaden</t>
   </si>
   <si>
-    <t>pošalji meni</t>
-  </si>
-  <si>
-    <t>e-mail klijent</t>
-  </si>
-  <si>
     <t>meni je uspešno poslat</t>
   </si>
   <si>
     <t>program ishrane</t>
   </si>
   <si>
-    <t>uputstava</t>
-  </si>
-  <si>
     <t>copiright</t>
   </si>
   <si>
-    <t>veb site</t>
-  </si>
-  <si>
-    <t>vratite se u aplikaciju</t>
-  </si>
-  <si>
-    <t>pravljenje menija</t>
-  </si>
-  <si>
-    <t>podešavanja</t>
-  </si>
-  <si>
-    <t>Slažem se</t>
-  </si>
-  <si>
-    <t>uslovi korišc´enja</t>
-  </si>
-  <si>
-    <t>smanjena telesna masa</t>
-  </si>
-  <si>
     <t>normalna telesna masa</t>
   </si>
   <si>
     <t>povišena telesna masa</t>
   </si>
   <si>
-    <t>android tipe</t>
-  </si>
-  <si>
-    <t>u slucaju akumulacije masnih tkiva akumulira se u predelu struka</t>
-  </si>
-  <si>
-    <t>ginoid tip</t>
-  </si>
-  <si>
-    <t>u slucaju akumulacije masnog tkiva, akumulira se u predelu kukova</t>
-  </si>
-  <si>
-    <t>obim struka izmedu 94 i 102 cm predstavlja povec´ani rizik od razlicitih bolesti (npr. dijabetesa i bolesti srca)</t>
-  </si>
-  <si>
     <t>obim struka iznad 102 cm predstavlja visok rizik od razlicitih bolesti (npr. dijabetes i bolesti srca)</t>
   </si>
   <si>
-    <t>klijent je vec´ registrovan</t>
-  </si>
-  <si>
-    <t>vec´ postoji meni sa istim imenom</t>
-  </si>
-  <si>
-    <t>nemate dozvolu da otvorite ovu datoteku</t>
-  </si>
-  <si>
-    <t>e-mail adresa koju ste uneli vec´ je registrovana</t>
-  </si>
-  <si>
-    <t>Registracija je uspešno završena</t>
-  </si>
-  <si>
-    <t>pogrešna e-mail poruka</t>
-  </si>
-  <si>
-    <t>lozinka je poslata na vaš e-mail</t>
-  </si>
-  <si>
     <t>intenzitet fizicke aktivnosti</t>
   </si>
   <si>
@@ -1890,18 +1749,9 @@
     <t>izaberite dijetu</t>
   </si>
   <si>
-    <t>termicki tretman</t>
-  </si>
-  <si>
     <t>pokazati više</t>
   </si>
   <si>
-    <t>broj potrošaca</t>
-  </si>
-  <si>
-    <t>velicina fonta</t>
-  </si>
-  <si>
     <t>ukupne vrednosti</t>
   </si>
   <si>
@@ -1911,27 +1761,6 @@
     <t>ukupna energetska vrednost</t>
   </si>
   <si>
-    <t>svi meniji</t>
-  </si>
-  <si>
-    <t>klijentove menije</t>
-  </si>
-  <si>
-    <t>pripremite meni</t>
-  </si>
-  <si>
-    <t>ime menija</t>
-  </si>
-  <si>
-    <t>obaveštenje</t>
-  </si>
-  <si>
-    <t>Sacuvaj kao novo</t>
-  </si>
-  <si>
-    <t>detaljni proracun potrošnje energije</t>
-  </si>
-  <si>
     <t>cene</t>
   </si>
   <si>
@@ -1944,9 +1773,6 @@
     <t>cenovnik</t>
   </si>
   <si>
-    <t>papagaj natropometrijskih parametara</t>
-  </si>
-  <si>
     <t>izmerena vrednost</t>
   </si>
   <si>
@@ -1956,87 +1782,24 @@
     <t>potvrdite lozinku</t>
   </si>
   <si>
-    <t>u demo verziji maksimalan broj hrane po meniju je 10</t>
-  </si>
-  <si>
-    <t>možete uneti samo jedan klijent u demo verziju</t>
-  </si>
-  <si>
-    <t>pocetno vreme i kraj aktivnosti ne mogu biti isti</t>
-  </si>
-  <si>
-    <t>pošaljite nalog</t>
-  </si>
-  <si>
     <t>maksimalan broj korisnika je</t>
   </si>
   <si>
-    <t>izbrisati korisnika</t>
-  </si>
-  <si>
     <t>izaberite obroke</t>
   </si>
   <si>
-    <t>ocistite hranu</t>
-  </si>
-  <si>
-    <t>izbrišite meni</t>
-  </si>
-  <si>
-    <t>Sva polja su obavezna</t>
-  </si>
-  <si>
-    <t>Lozinke nisu iste</t>
-  </si>
-  <si>
     <t>cena</t>
   </si>
   <si>
-    <t>vaš racun c´e biti aktivan u roku od 24 casa od prijema plac´anja ili nakon što nam pošaljete potvrdu o plac´anju na e-poštu</t>
-  </si>
-  <si>
-    <t>nalog je uspešno poslat</t>
-  </si>
-  <si>
     <t>obnoviti racun</t>
   </si>
   <si>
-    <t>izabrana dodatna potrošnja energije je vec´a od preporucene</t>
-  </si>
-  <si>
-    <t>veb</t>
-  </si>
-  <si>
     <t>pokaži sve</t>
   </si>
   <si>
-    <t>prac´enje antropometrijskih parametara</t>
-  </si>
-  <si>
     <t>pol</t>
   </si>
   <si>
-    <t>ime kompanije</t>
-  </si>
-  <si>
-    <t>korisnicka grupa</t>
-  </si>
-  <si>
-    <t>Brush entri</t>
-  </si>
-  <si>
-    <t>jedan n / m</t>
-  </si>
-  <si>
-    <t>više n / m</t>
-  </si>
-  <si>
-    <t>nova hrana</t>
-  </si>
-  <si>
-    <t>izračunavanje</t>
-  </si>
-  <si>
     <t>obim bokova</t>
   </si>
   <si>
@@ -2065,6 +1828,72 @@
   </si>
   <si>
     <t>hrvatski</t>
+  </si>
+  <si>
+    <t>novi korisnik</t>
+  </si>
+  <si>
+    <t>izaberi jezik</t>
+  </si>
+  <si>
+    <t>obrazac za naudžbu</t>
+  </si>
+  <si>
+    <t>fizicko lice</t>
+  </si>
+  <si>
+    <t>preduzeće</t>
+  </si>
+  <si>
+    <t>ulica i broj</t>
+  </si>
+  <si>
+    <t>odabrana kombinacija obroka u jelovniku nije dozvoljena</t>
+  </si>
+  <si>
+    <t>web site</t>
+  </si>
+  <si>
+    <t>uslovima korišćenja</t>
+  </si>
+  <si>
+    <t>obim struka izmedu 94 i 102 cm predstavlja povećni rizik od razlicitih bolesti (npr. dijabetesa i bolesti srca)</t>
+  </si>
+  <si>
+    <t>već postoji jelovnik sa istim nazivom</t>
+  </si>
+  <si>
+    <t>nemate dozvolu da otvoranje ove datoteke</t>
+  </si>
+  <si>
+    <t>e-mail adresa koju ste upisali je već registrovana</t>
+  </si>
+  <si>
+    <t>vreme početka i kraja aktivnosti ne može biti jednako</t>
+  </si>
+  <si>
+    <t>narudžba je uspješno poslata</t>
+  </si>
+  <si>
+    <t>ime preduzeća</t>
+  </si>
+  <si>
+    <t>prot</t>
+  </si>
+  <si>
+    <t>nutrition plan web</t>
+  </si>
+  <si>
+    <t>program prehrane web</t>
+  </si>
+  <si>
+    <t>plan ishrane web</t>
+  </si>
+  <si>
+    <t>delete choosen activity</t>
+  </si>
+  <si>
+    <t>briši odabranu aktivnost</t>
   </si>
 </sst>
 </file>
@@ -2411,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2552,7 +2381,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
@@ -2603,10 +2432,10 @@
         <v>new user</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>546</v>
+        <v>604</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
@@ -2614,26 +2443,26 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="2"/>
-        <v>'new user':'novi kosinik',</v>
+        <v>'new user':'novi korisnik',</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="3"/>
-        <v>'new user':'novi kosinus',</v>
+        <v>'new user':'novi korisnik',</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>logout</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
@@ -2650,17 +2479,17 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>activate full version</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
@@ -2677,17 +2506,17 @@
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="4" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>additional activities</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
@@ -2704,17 +2533,17 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>additional energy expenditure</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>548</v>
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
@@ -2726,22 +2555,22 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="3"/>
-        <v>'additional energy expenditure':'dodatna potrošnja energije',</v>
+        <v>'additional energy expenditure':'dodatna energetska potrošnja',</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>activity</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
@@ -2758,17 +2587,17 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" ref="C15:C78" si="4">B15</f>
         <v>factor</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
@@ -2785,17 +2614,17 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="4"/>
         <v>choosen activities</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
@@ -2812,17 +2641,17 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" si="4"/>
         <v>duration</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
@@ -2848,8 +2677,8 @@
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>672</v>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
@@ -2861,22 +2690,22 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="3"/>
-        <v>'calculation':'izračunavanje',</v>
+        <v>'calculation':'izračun',</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" si="4"/>
         <v>total energy expenditure</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>549</v>
+        <v>52</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
@@ -2888,7 +2717,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="3"/>
-        <v>'total energy expenditure':'ukupna potrošnja energije',</v>
+        <v>'total energy expenditure':'ukupna energetska potrošnja',</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2903,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
@@ -2920,17 +2749,17 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="4"/>
         <v>waist–hip ratio</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
@@ -2947,17 +2776,17 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" si="4"/>
         <v>waist</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E22" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
@@ -2974,17 +2803,17 @@
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" si="4"/>
         <v>recommendations</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
@@ -3001,17 +2830,17 @@
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" si="4"/>
         <v>weight</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
@@ -3028,17 +2857,17 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" si="4"/>
         <v>energy intake</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>552</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
@@ -3050,22 +2879,22 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="3"/>
-        <v>'energy intake':'ulaz energije',</v>
+        <v>'energy intake':'energetski unos',</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>additional energy expenditure</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>548</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
@@ -3077,7 +2906,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="3"/>
-        <v>'additional energy expenditure':'dodatna potrošnja energije',</v>
+        <v>'additional energy expenditure':'dodatna energetska potrošnja',</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -3109,17 +2938,17 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" si="4"/>
         <v>back</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
@@ -3136,17 +2965,17 @@
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" si="4"/>
         <v>new client</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -3163,17 +2992,17 @@
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" si="4"/>
         <v>search clients</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -3217,17 +3046,17 @@
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" si="4"/>
         <v>age</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -3244,7 +3073,7 @@
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3298,7 +3127,7 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" si="4"/>
@@ -3325,17 +3154,17 @@
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="4"/>
         <v>forward</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -3352,17 +3181,17 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" si="4"/>
         <v>measurement date</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -3379,17 +3208,17 @@
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" si="4"/>
         <v>height</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
@@ -3406,17 +3235,17 @@
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" si="4"/>
         <v>weight</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
@@ -3433,17 +3262,17 @@
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" si="4"/>
         <v>hip</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E40" t="s">
-        <v>673</v>
+        <v>594</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -3460,17 +3289,17 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="4"/>
         <v>energy expenditure</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -3487,17 +3316,17 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" si="4"/>
         <v>number</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -3514,17 +3343,17 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" si="4"/>
         <v>date</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -3568,17 +3397,17 @@
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" si="4"/>
         <v>activities</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -3595,17 +3424,17 @@
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" si="4"/>
         <v>diet</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -3622,17 +3451,17 @@
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" si="4"/>
         <v>meals</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -3649,17 +3478,17 @@
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" si="4"/>
         <v>menu</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -3676,17 +3505,17 @@
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" si="4"/>
         <v>print</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" t="s">
-        <v>557</v>
+        <v>93</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -3698,22 +3527,22 @@
       </c>
       <c r="O49" t="str">
         <f t="shared" si="3"/>
-        <v>'print':'štampanje',</v>
+        <v>'print':'ispis',</v>
       </c>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" si="4"/>
         <v>my foods</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -3730,17 +3559,17 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" si="4"/>
         <v>search</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -3757,17 +3586,17 @@
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" si="4"/>
         <v>carbohydrates</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -3784,17 +3613,17 @@
     </row>
     <row r="53" spans="2:15">
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" si="4"/>
         <v>proteins</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" t="s">
-        <v>674</v>
+        <v>595</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -3811,17 +3640,17 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" si="4"/>
         <v>fats</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -3838,17 +3667,17 @@
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" si="4"/>
         <v>choosen diet</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -3892,17 +3721,17 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="4" t="str">
         <f t="shared" si="4"/>
         <v>sing up</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -3919,17 +3748,17 @@
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58" s="4" t="str">
         <f t="shared" si="4"/>
         <v>meal planning web app</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -3956,7 +3785,7 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -4000,17 +3829,17 @@
     </row>
     <row r="61" spans="2:15">
       <c r="B61" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="4" t="str">
         <f t="shared" si="4"/>
         <v>choose language</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -4022,22 +3851,22 @@
       </c>
       <c r="O61" t="str">
         <f t="shared" si="3"/>
-        <v>'choose language':'izaberite jezik',</v>
+        <v>'choose language':'izaberi jezik',</v>
       </c>
     </row>
     <row r="62" spans="2:15">
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" si="4"/>
         <v>forgot your password</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
@@ -4054,17 +3883,17 @@
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" si="4"/>
         <v>error</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
@@ -4081,17 +3910,17 @@
     </row>
     <row r="64" spans="2:15">
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="4" t="str">
         <f t="shared" si="4"/>
         <v>new</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
@@ -4108,17 +3937,17 @@
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="4" t="str">
         <f t="shared" si="4"/>
         <v>open</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
@@ -4135,17 +3964,17 @@
     </row>
     <row r="66" spans="2:15">
       <c r="B66" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="4" t="str">
         <f t="shared" si="4"/>
         <v>add food</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>677</v>
+        <v>598</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -4162,17 +3991,17 @@
     </row>
     <row r="67" spans="2:15">
       <c r="B67" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="4" t="str">
         <f t="shared" si="4"/>
         <v>total</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
@@ -4189,17 +4018,17 @@
     </row>
     <row r="68" spans="2:15">
       <c r="B68" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C68" s="4" t="str">
         <f t="shared" si="4"/>
         <v>description</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
@@ -4216,17 +4045,17 @@
     </row>
     <row r="69" spans="2:15">
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4" t="str">
         <f t="shared" si="4"/>
         <v>distribution of energy value per meals</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" ref="I69:I133" si="5">"'"&amp;$B69&amp;"':"&amp;"'"&amp;C69&amp;"',"</f>
@@ -4243,17 +4072,17 @@
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="4" t="str">
         <f t="shared" si="4"/>
         <v>analytics</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="5"/>
@@ -4270,17 +4099,17 @@
     </row>
     <row r="71" spans="2:15">
       <c r="B71" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="4" t="str">
         <f t="shared" si="4"/>
         <v>charts</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="5"/>
@@ -4297,17 +4126,17 @@
     </row>
     <row r="72" spans="2:15">
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="str">
         <f t="shared" si="4"/>
         <v>tables</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="5"/>
@@ -4324,17 +4153,17 @@
     </row>
     <row r="73" spans="2:15">
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="str">
         <f t="shared" si="4"/>
         <v>unit servings</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="5"/>
@@ -4351,17 +4180,17 @@
     </row>
     <row r="74" spans="2:15">
       <c r="B74" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" s="4" t="str">
         <f t="shared" si="4"/>
         <v>energy</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="5"/>
@@ -4378,17 +4207,17 @@
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="4" t="str">
         <f t="shared" si="4"/>
         <v>recommended</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="5"/>
@@ -4405,17 +4234,17 @@
     </row>
     <row r="76" spans="2:15">
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="4" t="str">
         <f t="shared" si="4"/>
         <v>acceptable</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="5"/>
@@ -4432,17 +4261,17 @@
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="4" t="str">
         <f t="shared" si="4"/>
         <v>other foods</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>565</v>
+        <v>142</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="5"/>
@@ -4454,22 +4283,22 @@
       </c>
       <c r="O77" t="str">
         <f t="shared" si="7"/>
-        <v>'other foods':'druga hrana',</v>
+        <v>'other foods':'ostale namirnice',</v>
       </c>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="str">
         <f t="shared" si="4"/>
         <v>macronutrients</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="5"/>
@@ -4486,17 +4315,17 @@
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="str">
         <f t="shared" ref="C79:C143" si="8">B79</f>
         <v>carbs</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="5"/>
@@ -4513,44 +4342,44 @@
     </row>
     <row r="80" spans="2:15">
       <c r="B80" s="4" t="s">
-        <v>101</v>
+        <v>620</v>
       </c>
       <c r="C80" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>proteins</v>
+        <v>prot</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="5"/>
-        <v>'proteins':'proteins',</v>
+        <v>'prot':'prot',</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="6"/>
-        <v>'proteins':'bjel',</v>
+        <v>'prot':'bjel',</v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="7"/>
-        <v>'proteins':'bjel',</v>
+        <v>'prot':'bjel',</v>
       </c>
     </row>
     <row r="81" spans="2:15">
       <c r="B81" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="4" t="str">
         <f t="shared" si="8"/>
         <v>fats</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="5"/>
@@ -4567,17 +4396,17 @@
     </row>
     <row r="82" spans="2:15">
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="4" t="str">
         <f t="shared" si="8"/>
         <v>bad nutrients</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="5"/>
@@ -4594,17 +4423,17 @@
     </row>
     <row r="83" spans="2:15">
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="str">
         <f t="shared" si="8"/>
         <v>sat. fats</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="5"/>
@@ -4621,17 +4450,17 @@
     </row>
     <row r="84" spans="2:15">
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="4" t="str">
         <f t="shared" si="8"/>
         <v>tfa</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="5"/>
@@ -4648,17 +4477,17 @@
     </row>
     <row r="85" spans="2:15">
       <c r="B85" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="4" t="str">
         <f t="shared" si="8"/>
         <v>cholesterol</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="5"/>
@@ -4675,17 +4504,17 @@
     </row>
     <row r="86" spans="2:15">
       <c r="B86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="str">
         <f t="shared" si="8"/>
         <v>cereals</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="5"/>
@@ -4702,17 +4531,17 @@
     </row>
     <row r="87" spans="2:15">
       <c r="B87" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vegetables</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="5"/>
@@ -4729,17 +4558,17 @@
     </row>
     <row r="88" spans="2:15">
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C88" s="4" t="str">
         <f t="shared" si="8"/>
         <v>fruit</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="5"/>
@@ -4756,17 +4585,17 @@
     </row>
     <row r="89" spans="2:15">
       <c r="B89" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="str">
         <f t="shared" si="8"/>
         <v>meat</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="5"/>
@@ -4783,17 +4612,17 @@
     </row>
     <row r="90" spans="2:15">
       <c r="B90" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="4" t="str">
         <f t="shared" si="8"/>
         <v>milk</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E90" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="5"/>
@@ -4810,17 +4639,17 @@
     </row>
     <row r="91" spans="2:15">
       <c r="B91" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4" t="str">
         <f t="shared" si="8"/>
         <v>parameters</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="5"/>
@@ -4837,17 +4666,17 @@
     </row>
     <row r="92" spans="2:15">
       <c r="B92" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" s="4" t="str">
         <f t="shared" si="8"/>
         <v>unit</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="5"/>
@@ -4864,17 +4693,17 @@
     </row>
     <row r="93" spans="2:15">
       <c r="B93" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" s="4" t="str">
         <f t="shared" si="8"/>
         <v>choosen</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="5"/>
@@ -4891,17 +4720,17 @@
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="4" t="str">
         <f t="shared" si="8"/>
         <v>mda</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="5"/>
@@ -4918,17 +4747,17 @@
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C95" s="4" t="str">
         <f t="shared" si="8"/>
         <v>ui</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I95" t="str">
         <f t="shared" si="5"/>
@@ -4945,17 +4774,17 @@
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="4" t="str">
         <f t="shared" si="8"/>
         <v>rda</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="5"/>
@@ -4972,17 +4801,17 @@
     </row>
     <row r="97" spans="2:15">
       <c r="B97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="4" t="str">
         <f t="shared" si="8"/>
         <v>starch</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E97" t="s">
-        <v>568</v>
+        <v>176</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="I97" t="str">
         <f t="shared" si="5"/>
@@ -4994,22 +4823,22 @@
       </c>
       <c r="O97" t="str">
         <f t="shared" si="7"/>
-        <v>'starch':'skrob',</v>
+        <v>'starch':'škrob',</v>
       </c>
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98" s="4" t="str">
         <f t="shared" si="8"/>
         <v>total sugar</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I98" t="str">
         <f t="shared" si="5"/>
@@ -5026,17 +4855,17 @@
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" s="4" t="str">
         <f t="shared" si="8"/>
         <v>glucose</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I99" t="str">
         <f t="shared" si="5"/>
@@ -5053,17 +4882,17 @@
     </row>
     <row r="100" spans="2:15">
       <c r="B100" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" s="4" t="str">
         <f t="shared" si="8"/>
         <v>fructose</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="5"/>
@@ -5080,17 +4909,17 @@
     </row>
     <row r="101" spans="2:15">
       <c r="B101" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" s="4" t="str">
         <f t="shared" si="8"/>
         <v>saccharose</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="5"/>
@@ -5107,17 +4936,17 @@
     </row>
     <row r="102" spans="2:15">
       <c r="B102" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" s="4" t="str">
         <f t="shared" si="8"/>
         <v>maltose</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="5"/>
@@ -5134,17 +4963,17 @@
     </row>
     <row r="103" spans="2:15">
       <c r="B103" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C103" s="4" t="str">
         <f t="shared" si="8"/>
         <v>lactose</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I103" t="str">
         <f t="shared" si="5"/>
@@ -5161,17 +4990,17 @@
     </row>
     <row r="104" spans="2:15">
       <c r="B104" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="4" t="str">
         <f t="shared" si="8"/>
         <v>fibers</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I104" t="str">
         <f t="shared" si="5"/>
@@ -5188,17 +5017,17 @@
     </row>
     <row r="105" spans="2:15">
       <c r="B105" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105" s="4" t="str">
         <f t="shared" si="8"/>
         <v>saturated fats</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I105" t="str">
         <f t="shared" si="5"/>
@@ -5215,17 +5044,17 @@
     </row>
     <row r="106" spans="2:15">
       <c r="B106" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" s="4" t="str">
         <f t="shared" si="8"/>
         <v>monounsaturated fats</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I106" t="str">
         <f t="shared" si="5"/>
@@ -5242,17 +5071,17 @@
     </row>
     <row r="107" spans="2:15">
       <c r="B107" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C107" s="4" t="str">
         <f t="shared" si="8"/>
         <v>polyunsaturated fats</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="5"/>
@@ -5269,32 +5098,32 @@
     </row>
     <row r="108" spans="2:15">
       <c r="B108" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C108" s="4" t="str">
         <f t="shared" si="8"/>
         <v>trifluoroacetic acid</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="2:15">
       <c r="B109" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="4" t="str">
         <f t="shared" si="8"/>
         <v>sodium</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="5"/>
@@ -5311,17 +5140,17 @@
     </row>
     <row r="110" spans="2:15">
       <c r="B110" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C110" s="4" t="str">
         <f t="shared" si="8"/>
         <v>potassium</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E110" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="I110" t="str">
         <f t="shared" si="5"/>
@@ -5338,17 +5167,17 @@
     </row>
     <row r="111" spans="2:15">
       <c r="B111" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C111" s="4" t="str">
         <f t="shared" si="8"/>
         <v>calcium</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E111" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I111" t="str">
         <f t="shared" si="5"/>
@@ -5365,17 +5194,17 @@
     </row>
     <row r="112" spans="2:15">
       <c r="B112" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" s="4" t="str">
         <f t="shared" si="8"/>
         <v>magnesium</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E112" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I112" t="str">
         <f t="shared" si="5"/>
@@ -5392,17 +5221,17 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C113" s="4" t="str">
         <f t="shared" si="8"/>
         <v>phosphorus</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I113" t="str">
         <f t="shared" si="5"/>
@@ -5419,17 +5248,17 @@
     </row>
     <row r="114" spans="2:15">
       <c r="B114" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C114" s="4" t="str">
         <f t="shared" si="8"/>
         <v>iron</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E114" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I114" t="str">
         <f t="shared" si="5"/>
@@ -5446,17 +5275,17 @@
     </row>
     <row r="115" spans="2:15">
       <c r="B115" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115" s="4" t="str">
         <f t="shared" si="8"/>
         <v>copper</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I115" t="str">
         <f t="shared" si="5"/>
@@ -5473,17 +5302,17 @@
     </row>
     <row r="116" spans="2:15">
       <c r="B116" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C116" s="4" t="str">
         <f t="shared" si="8"/>
         <v>zinc</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I116" t="str">
         <f t="shared" si="5"/>
@@ -5500,17 +5329,17 @@
     </row>
     <row r="117" spans="2:15">
       <c r="B117" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C117" s="4" t="str">
         <f t="shared" si="8"/>
         <v>chlorine</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="I117" t="str">
         <f t="shared" si="5"/>
@@ -5527,17 +5356,17 @@
     </row>
     <row r="118" spans="2:15">
       <c r="B118" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C118" s="4" t="str">
         <f t="shared" si="8"/>
         <v>manganese</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I118" t="str">
         <f t="shared" si="5"/>
@@ -5554,17 +5383,17 @@
     </row>
     <row r="119" spans="2:15">
       <c r="B119" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C119" s="4" t="str">
         <f t="shared" si="8"/>
         <v>selenium</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="5"/>
@@ -5581,17 +5410,17 @@
     </row>
     <row r="120" spans="2:15">
       <c r="B120" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C120" s="4" t="str">
         <f t="shared" si="8"/>
         <v>iodine</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="5"/>
@@ -5608,17 +5437,17 @@
     </row>
     <row r="121" spans="2:15">
       <c r="B121" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C121" s="4" t="str">
         <f t="shared" si="8"/>
         <v>retinol</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="5"/>
@@ -5635,17 +5464,17 @@
     </row>
     <row r="122" spans="2:15">
       <c r="B122" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" s="4" t="str">
         <f t="shared" si="8"/>
         <v>carotene</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="5"/>
@@ -5662,17 +5491,17 @@
     </row>
     <row r="123" spans="2:15">
       <c r="B123" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C123" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin D</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="5"/>
@@ -5689,17 +5518,17 @@
     </row>
     <row r="124" spans="2:15">
       <c r="B124" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C124" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin E</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="5"/>
@@ -5716,17 +5545,17 @@
     </row>
     <row r="125" spans="2:15">
       <c r="B125" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C125" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin B1</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="5"/>
@@ -5743,17 +5572,17 @@
     </row>
     <row r="126" spans="2:15">
       <c r="B126" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C126" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin B2</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I126" t="str">
         <f t="shared" si="5"/>
@@ -5770,17 +5599,17 @@
     </row>
     <row r="127" spans="2:15">
       <c r="B127" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C127" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin B3</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="5"/>
@@ -5797,17 +5626,17 @@
     </row>
     <row r="128" spans="2:15">
       <c r="B128" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C128" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin B6</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I128" t="str">
         <f t="shared" si="5"/>
@@ -5824,17 +5653,17 @@
     </row>
     <row r="129" spans="2:15">
       <c r="B129" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C129" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin B12</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I129" t="str">
         <f t="shared" si="5"/>
@@ -5851,17 +5680,17 @@
     </row>
     <row r="130" spans="2:15">
       <c r="B130" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C130" s="4" t="str">
         <f t="shared" si="8"/>
         <v>folate</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I130" t="str">
         <f t="shared" si="5"/>
@@ -5878,17 +5707,17 @@
     </row>
     <row r="131" spans="2:15">
       <c r="B131" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C131" s="4" t="str">
         <f t="shared" si="8"/>
         <v>pantothenic acid</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="5"/>
@@ -5905,17 +5734,17 @@
     </row>
     <row r="132" spans="2:15">
       <c r="B132" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C132" s="4" t="str">
         <f t="shared" si="8"/>
         <v>biotin</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I132" t="str">
         <f t="shared" si="5"/>
@@ -5932,17 +5761,17 @@
     </row>
     <row r="133" spans="2:15">
       <c r="B133" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C133" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin C</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I133" t="str">
         <f t="shared" si="5"/>
@@ -5959,17 +5788,17 @@
     </row>
     <row r="134" spans="2:15">
       <c r="B134" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C134" s="4" t="str">
         <f t="shared" si="8"/>
         <v>vitamin K</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" ref="I134:I197" si="9">"'"&amp;$B134&amp;"':"&amp;"'"&amp;C134&amp;"',"</f>
@@ -5986,17 +5815,17 @@
     </row>
     <row r="135" spans="2:15">
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C135" s="4" t="str">
         <f t="shared" si="8"/>
         <v>delete</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="9"/>
@@ -6013,17 +5842,17 @@
     </row>
     <row r="136" spans="2:15">
       <c r="B136" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C136" s="4" t="str">
         <f t="shared" si="8"/>
         <v>quantity</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E136" t="s">
-        <v>575</v>
+        <v>241</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="9"/>
@@ -6035,22 +5864,22 @@
       </c>
       <c r="O136" t="str">
         <f t="shared" si="11"/>
-        <v>'quantity':'kolicina',</v>
+        <v>'quantity':'količina',</v>
       </c>
     </row>
     <row r="137" spans="2:15">
       <c r="B137" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>food</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="9"/>
@@ -6067,17 +5896,17 @@
     </row>
     <row r="138" spans="2:15">
       <c r="B138" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>food group</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E138" t="s">
-        <v>576</v>
+        <v>245</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="9"/>
@@ -6089,22 +5918,22 @@
       </c>
       <c r="O138" t="str">
         <f t="shared" si="11"/>
-        <v>'food group':'grupa hrane',</v>
+        <v>'food group':'skupina namirnica',</v>
       </c>
     </row>
     <row r="139" spans="2:15">
       <c r="B139" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C139" s="4" t="str">
         <f t="shared" si="8"/>
         <v>serv</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="9"/>
@@ -6121,17 +5950,17 @@
     </row>
     <row r="140" spans="2:15">
       <c r="B140" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C140" s="4" t="str">
         <f t="shared" si="8"/>
         <v>add new user</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E140" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="9"/>
@@ -6148,7 +5977,7 @@
     </row>
     <row r="141" spans="2:15">
       <c r="B141" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C141" s="4" t="str">
         <f t="shared" si="8"/>
@@ -6175,17 +6004,17 @@
     </row>
     <row r="142" spans="2:15">
       <c r="B142" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C142" s="4" t="str">
         <f t="shared" si="8"/>
         <v>last name</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="9"/>
@@ -6202,17 +6031,17 @@
     </row>
     <row r="143" spans="2:15">
       <c r="B143" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C143" s="4" t="str">
         <f t="shared" si="8"/>
         <v>email</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="9"/>
@@ -6229,17 +6058,17 @@
     </row>
     <row r="144" spans="2:15">
       <c r="B144" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C144" s="4" t="str">
         <f t="shared" ref="C144:C150" si="12">B144</f>
         <v>order</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E144" t="s">
-        <v>578</v>
+        <v>254</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="9"/>
@@ -6251,22 +6080,22 @@
       </c>
       <c r="O144" t="str">
         <f t="shared" si="11"/>
-        <v>'order':'porudžbina',</v>
+        <v>'order':'narudžba',</v>
       </c>
     </row>
     <row r="145" spans="2:15">
       <c r="B145" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C145" s="4" t="str">
         <f t="shared" si="12"/>
         <v>purchase</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E145" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="9"/>
@@ -6283,17 +6112,17 @@
     </row>
     <row r="146" spans="2:15">
       <c r="B146" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C146" s="4" t="str">
         <f t="shared" si="12"/>
         <v>your account will be active within 24 hours of your payment or after you send payment confirmation</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E146" t="s">
-        <v>580</v>
+        <v>257</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="9"/>
@@ -6305,22 +6134,22 @@
       </c>
       <c r="O146" t="str">
         <f t="shared" si="11"/>
-        <v>'your account will be active within 24 hours of your payment or after you send payment confirmation':'vaš nalog c´e biti aktivan u roku od 24 sata od primanja vašeg plac´anja ili nakon što nam pošaljete potvrdu o plac´anju',</v>
+        <v>'your account will be active within 24 hours of your payment or after you send payment confirmation':'vaš korisnički račun će biti aktivan unutar 24 sata od primitka uplate ili nakon što nam pošaljete potvrdu o uplati',</v>
       </c>
     </row>
     <row r="147" spans="2:15">
       <c r="B147" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C147" s="4" t="str">
         <f t="shared" si="12"/>
         <v>payment details</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E147" t="s">
-        <v>581</v>
+        <v>488</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="9"/>
@@ -6332,22 +6161,22 @@
       </c>
       <c r="O147" t="str">
         <f t="shared" si="11"/>
-        <v>'payment details':'podatke za plac´anje na žiro racun',</v>
+        <v>'payment details':'podaci za uplatu na žiro račun',</v>
       </c>
     </row>
     <row r="148" spans="2:15">
       <c r="B148" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C148" s="4" t="str">
         <f t="shared" si="12"/>
         <v>iban</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="9"/>
@@ -6364,17 +6193,17 @@
     </row>
     <row r="149" spans="2:15">
       <c r="B149" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C149" s="4" t="str">
         <f t="shared" si="12"/>
         <v>bank</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E149" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="9"/>
@@ -6391,17 +6220,17 @@
     </row>
     <row r="150" spans="2:15">
       <c r="B150" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C150" s="4" t="str">
         <f t="shared" si="12"/>
         <v>order form</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E150" t="s">
-        <v>582</v>
+        <v>263</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="9"/>
@@ -6413,22 +6242,22 @@
       </c>
       <c r="O150" t="str">
         <f t="shared" si="11"/>
-        <v>'order form':'obrazac za dobijanje',</v>
+        <v>'order form':'obrazac za naudžbu',</v>
       </c>
     </row>
     <row r="151" spans="2:15">
       <c r="B151" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C151" s="4" t="str">
         <f t="shared" ref="C151:C214" si="13">B151</f>
         <v>natural person</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E151" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="9"/>
@@ -6440,22 +6269,22 @@
       </c>
       <c r="O151" t="str">
         <f t="shared" si="11"/>
-        <v>'natural person':'fizicka osoba',</v>
+        <v>'natural person':'fizicko lice',</v>
       </c>
     </row>
     <row r="152" spans="2:15">
       <c r="B152" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C152" s="4" t="str">
         <f t="shared" si="13"/>
         <v>legal person</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E152" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="9"/>
@@ -6472,17 +6301,17 @@
     </row>
     <row r="153" spans="2:15">
       <c r="B153" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C153" s="4" t="str">
         <f t="shared" si="13"/>
         <v>pin</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="9"/>
@@ -6499,17 +6328,17 @@
     </row>
     <row r="154" spans="2:15">
       <c r="B154" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C154" s="4" t="str">
         <f t="shared" si="13"/>
         <v>company</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E154" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="9"/>
@@ -6521,22 +6350,22 @@
       </c>
       <c r="O154" t="str">
         <f t="shared" si="11"/>
-        <v>'company':'kompanija',</v>
+        <v>'company':'preduzeće',</v>
       </c>
     </row>
     <row r="155" spans="2:15">
       <c r="B155" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C155" s="4" t="str">
         <f t="shared" si="13"/>
         <v>address</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>274</v>
+        <v>609</v>
       </c>
       <c r="E155" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="9"/>
@@ -6544,7 +6373,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" si="10"/>
-        <v>'address':'ulica I broj',</v>
+        <v>'address':'ulica i broj',</v>
       </c>
       <c r="O155" t="str">
         <f t="shared" si="11"/>
@@ -6553,17 +6382,17 @@
     </row>
     <row r="156" spans="2:15">
       <c r="B156" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C156" s="4" t="str">
         <f t="shared" si="13"/>
         <v>postal code</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="9"/>
@@ -6580,17 +6409,17 @@
     </row>
     <row r="157" spans="2:15">
       <c r="B157" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C157" s="4" t="str">
         <f t="shared" si="13"/>
         <v>city</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="9"/>
@@ -6607,17 +6436,17 @@
     </row>
     <row r="158" spans="2:15">
       <c r="B158" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C158" s="4" t="str">
         <f t="shared" si="13"/>
         <v>country</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="9"/>
@@ -6634,17 +6463,17 @@
     </row>
     <row r="159" spans="2:15">
       <c r="B159" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C159" s="4" t="str">
         <f t="shared" si="13"/>
         <v>go back</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E159" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="9"/>
@@ -6661,17 +6490,17 @@
     </row>
     <row r="160" spans="2:15">
       <c r="B160" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C160" s="4" t="str">
         <f t="shared" si="13"/>
         <v>you are currently working in a demo version</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E160" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="9"/>
@@ -6688,17 +6517,17 @@
     </row>
     <row r="161" spans="2:15">
       <c r="B161" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C161" s="4" t="str">
         <f t="shared" si="13"/>
         <v>some functions are disabled</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E161" t="s">
-        <v>587</v>
+        <v>283</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="I161" t="str">
         <f t="shared" si="9"/>
@@ -6710,22 +6539,22 @@
       </c>
       <c r="O161" t="str">
         <f t="shared" si="11"/>
-        <v>'some functions are disabled':'neke funkcije su onemoguc´ene',</v>
+        <v>'some functions are disabled':'neke funkcionalnosti su onemogućene',</v>
       </c>
     </row>
     <row r="162" spans="2:15">
       <c r="B162" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C162" s="4" t="str">
         <f t="shared" si="13"/>
         <v>this function is not available in demo version</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E162" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I162" t="str">
         <f t="shared" si="9"/>
@@ -6742,17 +6571,17 @@
     </row>
     <row r="163" spans="2:15">
       <c r="B163" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C163" s="4" t="str">
         <f t="shared" si="13"/>
         <v>activate full version</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E163" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I163" t="str">
         <f t="shared" si="9"/>
@@ -6769,17 +6598,17 @@
     </row>
     <row r="164" spans="2:15">
       <c r="B164" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C164" s="4" t="str">
         <f t="shared" si="13"/>
         <v>yes</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E164" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I164" t="str">
         <f t="shared" si="9"/>
@@ -6796,17 +6625,17 @@
     </row>
     <row r="165" spans="2:15">
       <c r="B165" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C165" s="4" t="str">
         <f t="shared" si="13"/>
         <v>not now</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E165" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I165" t="str">
         <f t="shared" si="9"/>
@@ -6823,17 +6652,17 @@
     </row>
     <row r="166" spans="2:15">
       <c r="B166" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C166" s="4" t="str">
         <f t="shared" si="13"/>
         <v>the selected meal combination is not allowed in the menu</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E166" t="s">
-        <v>588</v>
+        <v>610</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="I166" t="str">
         <f t="shared" si="9"/>
@@ -6841,26 +6670,26 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" si="10"/>
-        <v>'the selected meal combination is not allowed in the menu':'odagrana kombinacija obroka u jelovniku nije dozvoljena',</v>
+        <v>'the selected meal combination is not allowed in the menu':'odabrana kombinacija obroka u jelovniku nije dozvoljena',</v>
       </c>
       <c r="O166" t="str">
         <f t="shared" si="11"/>
-        <v>'the selected meal combination is not allowed in the menu':'ukusna kombinacija jela u meniju nije dozvoljena',</v>
+        <v>'the selected meal combination is not allowed in the menu':'odabrana kombinacija obroka u jelovniku nije dozvoljena',</v>
       </c>
     </row>
     <row r="167" spans="2:15">
       <c r="B167" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C167" s="4" t="str">
         <f t="shared" si="13"/>
         <v>in this combination must be turned off</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E167" t="s">
-        <v>589</v>
+        <v>292</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="I167" t="str">
         <f t="shared" si="9"/>
@@ -6872,22 +6701,22 @@
       </c>
       <c r="O167" t="str">
         <f t="shared" si="11"/>
-        <v>'in this combination must be turned off':'u ovoj kombinaciji moraju biti iskljuceni',</v>
+        <v>'in this combination must be turned off':'u ovoj kombinaciji mora biti iskljućen',</v>
       </c>
     </row>
     <row r="168" spans="2:15">
       <c r="B168" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C168" s="4" t="str">
         <f t="shared" si="13"/>
         <v>your account has expired</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E168" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="I168" t="str">
         <f t="shared" si="9"/>
@@ -6904,17 +6733,17 @@
     </row>
     <row r="169" spans="2:15">
       <c r="B169" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C169" s="4" t="str">
         <f t="shared" si="13"/>
         <v>wrong user name or password</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E169" t="s">
-        <v>591</v>
+        <v>296</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="I169" t="str">
         <f t="shared" si="9"/>
@@ -6926,22 +6755,22 @@
       </c>
       <c r="O169" t="str">
         <f t="shared" si="11"/>
-        <v>'wrong user name or password':'pogrešno ime ili lozinka',</v>
+        <v>'wrong user name or password':'pogrešno kosničko ime ili lozinka',</v>
       </c>
     </row>
     <row r="170" spans="2:15">
       <c r="B170" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C170" s="4" t="str">
         <f t="shared" si="13"/>
         <v>user was not found</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E170" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="I170" t="str">
         <f t="shared" si="9"/>
@@ -6958,17 +6787,17 @@
     </row>
     <row r="171" spans="2:15">
       <c r="B171" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C171" s="4" t="str">
         <f t="shared" si="13"/>
         <v>send menu</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E171" t="s">
-        <v>593</v>
+        <v>300</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="I171" t="str">
         <f t="shared" si="9"/>
@@ -6980,22 +6809,22 @@
       </c>
       <c r="O171" t="str">
         <f t="shared" si="11"/>
-        <v>'send menu':'pošalji meni',</v>
+        <v>'send menu':'pošalji jelovnik',</v>
       </c>
     </row>
     <row r="172" spans="2:15">
       <c r="B172" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C172" s="4" t="str">
         <f t="shared" si="13"/>
         <v>client email</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E172" t="s">
-        <v>594</v>
+        <v>413</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="I172" t="str">
         <f t="shared" si="9"/>
@@ -7007,22 +6836,22 @@
       </c>
       <c r="O172" t="str">
         <f t="shared" si="11"/>
-        <v>'client email':'e-mail klijent',</v>
+        <v>'client email':'e-mail klijenta',</v>
       </c>
     </row>
     <row r="173" spans="2:15">
       <c r="B173" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C173" s="4" t="str">
         <f t="shared" si="13"/>
         <v>menu sent successfully</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E173" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="I173" t="str">
         <f t="shared" si="9"/>
@@ -7039,17 +6868,17 @@
     </row>
     <row r="174" spans="2:15">
       <c r="B174" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C174" s="4" t="str">
         <f t="shared" si="13"/>
         <v>nutrition plan</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E174" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="I174" t="str">
         <f t="shared" si="9"/>
@@ -7066,17 +6895,17 @@
     </row>
     <row r="175" spans="2:15">
       <c r="B175" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C175" s="4" t="str">
         <f t="shared" si="13"/>
         <v>help</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E175" t="s">
-        <v>597</v>
+        <v>307</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="I175" t="str">
         <f t="shared" si="9"/>
@@ -7088,22 +6917,22 @@
       </c>
       <c r="O175" t="str">
         <f t="shared" si="11"/>
-        <v>'help':'uputstava',</v>
+        <v>'help':'uputa',</v>
       </c>
     </row>
     <row r="176" spans="2:15">
       <c r="B176" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C176" s="4" t="str">
         <f t="shared" si="13"/>
         <v>info</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E176" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I176" t="str">
         <f t="shared" si="9"/>
@@ -7120,17 +6949,17 @@
     </row>
     <row r="177" spans="2:15">
       <c r="B177" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C177" s="4" t="str">
         <f t="shared" si="13"/>
         <v>copyright</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E177" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="I177" t="str">
         <f t="shared" si="9"/>
@@ -7147,17 +6976,17 @@
     </row>
     <row r="178" spans="2:15">
       <c r="B178" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C178" s="4" t="str">
         <f t="shared" si="13"/>
         <v>author</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E178" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I178" t="str">
         <f t="shared" si="9"/>
@@ -7174,17 +7003,17 @@
     </row>
     <row r="179" spans="2:15">
       <c r="B179" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C179" s="4" t="str">
         <f t="shared" si="13"/>
         <v>home page</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E179" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="I179" t="str">
         <f t="shared" si="9"/>
@@ -7196,22 +7025,22 @@
       </c>
       <c r="O179" t="str">
         <f t="shared" si="11"/>
-        <v>'home page':'veb site',</v>
+        <v>'home page':'web site',</v>
       </c>
     </row>
     <row r="180" spans="2:15">
       <c r="B180" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C180" s="4" t="str">
         <f t="shared" si="13"/>
         <v>version</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E180" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I180" t="str">
         <f t="shared" si="9"/>
@@ -7228,17 +7057,17 @@
     </row>
     <row r="181" spans="2:15">
       <c r="B181" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C181" s="4" t="str">
         <f t="shared" si="13"/>
         <v>back to app</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E181" t="s">
-        <v>600</v>
+        <v>317</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="I181" t="str">
         <f t="shared" si="9"/>
@@ -7250,22 +7079,22 @@
       </c>
       <c r="O181" t="str">
         <f t="shared" si="11"/>
-        <v>'back to app':'vratite se u aplikaciju',</v>
+        <v>'back to app':'povratak u aplikaciju',</v>
       </c>
     </row>
     <row r="182" spans="2:15">
       <c r="B182" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C182" s="4" t="str">
         <f t="shared" si="13"/>
         <v>create menues</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E182" t="s">
-        <v>601</v>
+        <v>319</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="I182" t="str">
         <f t="shared" si="9"/>
@@ -7277,22 +7106,22 @@
       </c>
       <c r="O182" t="str">
         <f t="shared" si="11"/>
-        <v>'create menues':'pravljenje menija',</v>
+        <v>'create menues':'izrada jelovnika',</v>
       </c>
     </row>
     <row r="183" spans="2:15">
       <c r="B183" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C183" s="4" t="str">
         <f t="shared" si="13"/>
         <v>additional options</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E183" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I183" t="str">
         <f t="shared" si="9"/>
@@ -7309,17 +7138,17 @@
     </row>
     <row r="184" spans="2:15">
       <c r="B184" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C184" s="4" t="str">
         <f t="shared" si="13"/>
         <v>settings</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E184" t="s">
-        <v>602</v>
+        <v>323</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="I184" t="str">
         <f t="shared" si="9"/>
@@ -7331,22 +7160,22 @@
       </c>
       <c r="O184" t="str">
         <f t="shared" si="11"/>
-        <v>'settings':'podešavanja',</v>
+        <v>'settings':'postavke',</v>
       </c>
     </row>
     <row r="185" spans="2:15">
       <c r="B185" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C185" s="4" t="str">
         <f t="shared" si="13"/>
         <v>i agree to the</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E185" t="s">
-        <v>603</v>
+        <v>325</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="I185" t="str">
         <f t="shared" si="9"/>
@@ -7358,22 +7187,22 @@
       </c>
       <c r="O185" t="str">
         <f t="shared" si="11"/>
-        <v>'i agree to the':'Slažem se',</v>
+        <v>'i agree to the':'slažem se sa',</v>
       </c>
     </row>
     <row r="186" spans="2:15">
       <c r="B186" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C186" s="4" t="str">
         <f t="shared" si="13"/>
         <v>terms and conditions</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E186" t="s">
-        <v>604</v>
+        <v>326</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="I186" t="str">
         <f t="shared" si="9"/>
@@ -7385,22 +7214,22 @@
       </c>
       <c r="O186" t="str">
         <f t="shared" si="11"/>
-        <v>'terms and conditions':'uslovi korišc´enja',</v>
+        <v>'terms and conditions':'uslovima korišćenja',</v>
       </c>
     </row>
     <row r="187" spans="2:15">
       <c r="B187" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C187" s="4" t="str">
         <f t="shared" si="13"/>
         <v>to top</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E187" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I187" t="str">
         <f t="shared" si="9"/>
@@ -7417,17 +7246,17 @@
     </row>
     <row r="188" spans="2:15">
       <c r="B188" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C188" s="4" t="str">
         <f t="shared" si="13"/>
         <v>underweight</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E188" t="s">
-        <v>605</v>
+        <v>331</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="I188" t="str">
         <f t="shared" si="9"/>
@@ -7439,22 +7268,22 @@
       </c>
       <c r="O188" t="str">
         <f t="shared" si="11"/>
-        <v>'underweight':'smanjena telesna masa',</v>
+        <v>'underweight':'snižena tjelesna masa',</v>
       </c>
     </row>
     <row r="189" spans="2:15">
       <c r="B189" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C189" s="4" t="str">
         <f t="shared" si="13"/>
         <v>normal weight</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E189" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="I189" t="str">
         <f t="shared" si="9"/>
@@ -7471,17 +7300,17 @@
     </row>
     <row r="190" spans="2:15">
       <c r="B190" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C190" s="4" t="str">
         <f t="shared" si="13"/>
         <v>overweight</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E190" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" si="9"/>
@@ -7498,17 +7327,17 @@
     </row>
     <row r="191" spans="2:15">
       <c r="B191" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C191" s="4" t="str">
         <f t="shared" si="13"/>
         <v>obese</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E191" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I191" t="str">
         <f t="shared" si="9"/>
@@ -7525,17 +7354,17 @@
     </row>
     <row r="192" spans="2:15">
       <c r="B192" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C192" s="4" t="str">
         <f t="shared" si="13"/>
         <v>android fat distribution</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E192" t="s">
-        <v>608</v>
+        <v>339</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="I192" t="str">
         <f t="shared" si="9"/>
@@ -7547,22 +7376,22 @@
       </c>
       <c r="O192" t="str">
         <f t="shared" si="11"/>
-        <v>'android fat distribution':'android tipe',</v>
+        <v>'android fat distribution':'androidni tip',</v>
       </c>
     </row>
     <row r="193" spans="2:15">
       <c r="B193" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C193" s="4" t="str">
         <f t="shared" si="13"/>
         <v>in the case of fatty tissue accumulation, it accumulates in the area of the waist</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E193" t="s">
-        <v>609</v>
+        <v>344</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="I193" t="str">
         <f t="shared" si="9"/>
@@ -7574,22 +7403,22 @@
       </c>
       <c r="O193" t="str">
         <f t="shared" si="11"/>
-        <v>'in the case of fatty tissue accumulation, it accumulates in the area of the waist':'u slucaju akumulacije masnih tkiva akumulira se u predelu struka',</v>
+        <v>'in the case of fatty tissue accumulation, it accumulates in the area of the waist':'u slučaju nakupljanja masnog tkiva, ono se nakuplja u području struka',</v>
       </c>
     </row>
     <row r="194" spans="2:15">
       <c r="B194" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C194" s="4" t="str">
         <f t="shared" si="13"/>
         <v>gynoid fat distribution</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E194" t="s">
-        <v>610</v>
+        <v>342</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="I194" t="str">
         <f t="shared" si="9"/>
@@ -7601,22 +7430,22 @@
       </c>
       <c r="O194" t="str">
         <f t="shared" si="11"/>
-        <v>'gynoid fat distribution':'ginoid tip',</v>
+        <v>'gynoid fat distribution':'ginoidni tip',</v>
       </c>
     </row>
     <row r="195" spans="2:15">
       <c r="B195" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C195" s="4" t="str">
         <f t="shared" si="13"/>
         <v>in the case of fatty tissue accumulation, it accumulates in the area of the hips</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E195" t="s">
-        <v>611</v>
+        <v>343</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" si="9"/>
@@ -7628,22 +7457,22 @@
       </c>
       <c r="O195" t="str">
         <f t="shared" si="11"/>
-        <v>'in the case of fatty tissue accumulation, it accumulates in the area of the hips':'u slucaju akumulacije masnog tkiva, akumulira se u predelu kukova',</v>
+        <v>'in the case of fatty tissue accumulation, it accumulates in the area of the hips':'u slučaju nakupljanja masnog tkiva, ono se nakuplja u području bokova',</v>
       </c>
     </row>
     <row r="196" spans="2:15">
       <c r="B196" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C196" s="4" t="str">
         <f t="shared" si="13"/>
         <v>the waist circumference between 94 and 102 cm represents an increased risk of various diseases (eg diabetes and heart disease)</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" si="9"/>
@@ -7655,22 +7484,22 @@
       </c>
       <c r="O196" t="str">
         <f t="shared" si="11"/>
-        <v>'the waist circumference between 94 and 102 cm represents an increased risk of various diseases (eg diabetes and heart disease)':'obim struka izmedu 94 i 102 cm predstavlja povec´ani rizik od razlicitih bolesti (npr. dijabetesa i bolesti srca)',</v>
+        <v>'the waist circumference between 94 and 102 cm represents an increased risk of various diseases (eg diabetes and heart disease)':'obim struka izmedu 94 i 102 cm predstavlja povećni rizik od razlicitih bolesti (npr. dijabetesa i bolesti srca)',</v>
       </c>
     </row>
     <row r="197" spans="2:15">
       <c r="B197" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C197" s="4" t="str">
         <f t="shared" si="13"/>
         <v>the waist circumference above 102 cm represents a very high risk of various diseases (eg diabetes and heart disease)</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E197" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="I197" t="str">
         <f t="shared" si="9"/>
@@ -7687,17 +7516,17 @@
     </row>
     <row r="198" spans="2:15">
       <c r="B198" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C198" s="4" t="str">
         <f t="shared" si="13"/>
         <v>client is already registered</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E198" t="s">
-        <v>614</v>
+        <v>350</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="I198" t="str">
         <f t="shared" ref="I198:I261" si="14">"'"&amp;$B198&amp;"':"&amp;"'"&amp;C198&amp;"',"</f>
@@ -7709,22 +7538,22 @@
       </c>
       <c r="O198" t="str">
         <f t="shared" ref="O198:O261" si="16">"'"&amp;$B198&amp;"':"&amp;"'"&amp;E198&amp;"',"</f>
-        <v>'client is already registered':'klijent je vec´ registrovan',</v>
+        <v>'client is already registered':'klijent je već registriran',</v>
       </c>
     </row>
     <row r="199" spans="2:15">
       <c r="B199" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C199" s="4" t="str">
         <f t="shared" si="13"/>
         <v>man</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E199" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I199" t="str">
         <f t="shared" si="14"/>
@@ -7741,17 +7570,17 @@
     </row>
     <row r="200" spans="2:15">
       <c r="B200" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C200" s="4" t="str">
         <f t="shared" si="13"/>
         <v>woman</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E200" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I200" t="str">
         <f t="shared" si="14"/>
@@ -7768,17 +7597,17 @@
     </row>
     <row r="201" spans="2:15">
       <c r="B201" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C201" s="4" t="str">
         <f t="shared" si="13"/>
         <v>there is already a menu with the same name</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E201" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="I201" t="str">
         <f t="shared" si="14"/>
@@ -7786,26 +7615,26 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" si="15"/>
-        <v>'there is already a menu with the same name':'već postoji jelovnik sa istim imenom',</v>
+        <v>'there is already a menu with the same name':'već postoji jelovnik sa istim nazivom',</v>
       </c>
       <c r="O201" t="str">
         <f t="shared" si="16"/>
-        <v>'there is already a menu with the same name':'vec´ postoji meni sa istim imenom',</v>
+        <v>'there is already a menu with the same name':'već postoji jelovnik sa istim nazivom',</v>
       </c>
     </row>
     <row r="202" spans="2:15">
       <c r="B202" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C202" s="4" t="str">
         <f t="shared" si="13"/>
         <v>you do not have permission to open this file</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I202" t="str">
         <f t="shared" si="14"/>
@@ -7817,22 +7646,22 @@
       </c>
       <c r="O202" t="str">
         <f t="shared" si="16"/>
-        <v>'you do not have permission to open this file':'nemate dozvolu da otvorite ovu datoteku',</v>
+        <v>'you do not have permission to open this file':'nemate dozvolu da otvoranje ove datoteke',</v>
       </c>
     </row>
     <row r="203" spans="2:15">
       <c r="B203" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C203" s="4" t="str">
         <f t="shared" si="13"/>
         <v>the email address you have entered is already registered</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E203" t="s">
-        <v>617</v>
+        <v>359</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="I203" t="str">
         <f t="shared" si="14"/>
@@ -7844,22 +7673,22 @@
       </c>
       <c r="O203" t="str">
         <f t="shared" si="16"/>
-        <v>'the email address you have entered is already registered':'e-mail adresa koju ste uneli vec´ je registrovana',</v>
+        <v>'the email address you have entered is already registered':'e-mail adresa koju ste upisali je već registrovana',</v>
       </c>
     </row>
     <row r="204" spans="2:15">
       <c r="B204" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C204" s="4" t="str">
         <f t="shared" si="13"/>
         <v>registration completed successfully</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E204" t="s">
-        <v>618</v>
+        <v>361</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="I204" t="str">
         <f t="shared" si="14"/>
@@ -7871,22 +7700,22 @@
       </c>
       <c r="O204" t="str">
         <f t="shared" si="16"/>
-        <v>'registration completed successfully':'Registracija je uspešno završena',</v>
+        <v>'registration completed successfully':'registracija uspješno završena',</v>
       </c>
     </row>
     <row r="205" spans="2:15">
       <c r="B205" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C205" s="4" t="str">
         <f t="shared" si="13"/>
         <v>wrong e-mail</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E205" t="s">
-        <v>619</v>
+        <v>363</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="I205" t="str">
         <f t="shared" si="14"/>
@@ -7898,22 +7727,22 @@
       </c>
       <c r="O205" t="str">
         <f t="shared" si="16"/>
-        <v>'wrong e-mail':'pogrešna e-mail poruka',</v>
+        <v>'wrong e-mail':'pogrešan e-mail',</v>
       </c>
     </row>
     <row r="206" spans="2:15">
       <c r="B206" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C206" s="4" t="str">
         <f t="shared" si="13"/>
         <v>password has been sent to your e-mail</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E206" t="s">
-        <v>620</v>
+        <v>365</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="I206" t="str">
         <f t="shared" si="14"/>
@@ -7925,22 +7754,22 @@
       </c>
       <c r="O206" t="str">
         <f t="shared" si="16"/>
-        <v>'password has been sent to your e-mail':'lozinka je poslata na vaš e-mail',</v>
+        <v>'password has been sent to your e-mail':'lozinka je poslana na vaš e-mail',</v>
       </c>
     </row>
     <row r="207" spans="2:15">
       <c r="B207" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C207" s="4" t="str">
         <f t="shared" si="13"/>
         <v>physical activity level</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E207" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="I207" t="str">
         <f t="shared" si="14"/>
@@ -7957,17 +7786,17 @@
     </row>
     <row r="208" spans="2:15">
       <c r="B208" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C208" s="4" t="str">
         <f t="shared" si="13"/>
         <v>select activity</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E208" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="I208" t="str">
         <f t="shared" si="14"/>
@@ -7984,17 +7813,17 @@
     </row>
     <row r="209" spans="2:15">
       <c r="B209" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C209" s="4" t="str">
         <f t="shared" si="13"/>
         <v>select diet</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E209" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="I209" t="str">
         <f t="shared" si="14"/>
@@ -8011,17 +7840,17 @@
     </row>
     <row r="210" spans="2:15">
       <c r="B210" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C210" s="4" t="str">
         <f t="shared" si="13"/>
         <v>additional activity</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E210" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I210" t="str">
         <f t="shared" si="14"/>
@@ -8038,17 +7867,17 @@
     </row>
     <row r="211" spans="2:15">
       <c r="B211" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C211" s="4" t="str">
         <f t="shared" si="13"/>
         <v>description, meal preparation</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I211" t="str">
         <f t="shared" si="14"/>
@@ -8065,17 +7894,17 @@
     </row>
     <row r="212" spans="2:15">
       <c r="B212" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C212" s="4" t="str">
         <f t="shared" si="13"/>
         <v>send</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E212" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I212" t="str">
         <f t="shared" si="14"/>
@@ -8092,17 +7921,17 @@
     </row>
     <row r="213" spans="2:15">
       <c r="B213" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C213" s="4" t="str">
         <f t="shared" si="13"/>
         <v>thermal treatment</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E213" t="s">
-        <v>624</v>
+        <v>382</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="I213" t="str">
         <f t="shared" si="14"/>
@@ -8114,22 +7943,22 @@
       </c>
       <c r="O213" t="str">
         <f t="shared" si="16"/>
-        <v>'thermal treatment':'termicki tretman',</v>
+        <v>'thermal treatment':'termička obrada',</v>
       </c>
     </row>
     <row r="214" spans="2:15">
       <c r="B214" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C214" s="4" t="str">
         <f t="shared" si="13"/>
         <v>show more</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E214" t="s">
-        <v>625</v>
+        <v>577</v>
       </c>
       <c r="I214" t="str">
         <f t="shared" si="14"/>
@@ -8146,17 +7975,17 @@
     </row>
     <row r="215" spans="2:15">
       <c r="B215" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C215" s="4" t="str">
         <f t="shared" ref="C215:C278" si="17">B215</f>
         <v>add</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E215" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I215" t="str">
         <f t="shared" si="14"/>
@@ -8173,17 +8002,17 @@
     </row>
     <row r="216" spans="2:15">
       <c r="B216" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C216" s="4" t="str">
         <f t="shared" si="17"/>
         <v>client</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E216" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I216" t="str">
         <f t="shared" si="14"/>
@@ -8200,17 +8029,17 @@
     </row>
     <row r="217" spans="2:15">
       <c r="B217" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C217" s="4" t="str">
         <f t="shared" si="17"/>
         <v>number of consumers</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E217" t="s">
-        <v>626</v>
+        <v>390</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="I217" t="str">
         <f t="shared" si="14"/>
@@ -8222,22 +8051,22 @@
       </c>
       <c r="O217" t="str">
         <f t="shared" si="16"/>
-        <v>'number of consumers':'broj potrošaca',</v>
+        <v>'number of consumers':'broj konzumenata',</v>
       </c>
     </row>
     <row r="218" spans="2:15">
       <c r="B218" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C218" s="4" t="str">
         <f t="shared" si="17"/>
         <v>font size</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E218" t="s">
-        <v>627</v>
+        <v>392</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="I218" t="str">
         <f t="shared" si="14"/>
@@ -8249,22 +8078,22 @@
       </c>
       <c r="O218" t="str">
         <f t="shared" si="16"/>
-        <v>'font size':'velicina fonta',</v>
+        <v>'font size':'veličina fonta',</v>
       </c>
     </row>
     <row r="219" spans="2:15">
       <c r="B219" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C219" s="4" t="str">
         <f t="shared" si="17"/>
         <v>total values</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E219" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="I219" t="str">
         <f t="shared" si="14"/>
@@ -8281,17 +8110,17 @@
     </row>
     <row r="220" spans="2:15">
       <c r="B220" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C220" s="4" t="str">
         <f t="shared" si="17"/>
         <v>patameters</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="14"/>
@@ -8308,17 +8137,17 @@
     </row>
     <row r="221" spans="2:15">
       <c r="B221" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C221" s="4" t="str">
         <f t="shared" si="17"/>
         <v>totals</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>398</v>
+        <v>123</v>
       </c>
       <c r="E221" t="s">
-        <v>628</v>
+        <v>123</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="14"/>
@@ -8326,26 +8155,26 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" si="15"/>
-        <v>'totals':'ukupne vrijednosti',</v>
+        <v>'totals':'ukupno',</v>
       </c>
       <c r="O221" t="str">
         <f t="shared" si="16"/>
-        <v>'totals':'ukupne vrednosti',</v>
+        <v>'totals':'ukupno',</v>
       </c>
     </row>
     <row r="222" spans="2:15">
       <c r="B222" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C222" s="4" t="str">
         <f t="shared" si="17"/>
         <v>client data</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E222" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="I222" t="str">
         <f t="shared" si="14"/>
@@ -8362,17 +8191,17 @@
     </row>
     <row r="223" spans="2:15">
       <c r="B223" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C223" s="4" t="str">
         <f t="shared" si="17"/>
         <v>total energy</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E223" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="I223" t="str">
         <f t="shared" si="14"/>
@@ -8389,17 +8218,17 @@
     </row>
     <row r="224" spans="2:15">
       <c r="B224" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C224" s="4" t="str">
         <f t="shared" si="17"/>
         <v>all menues</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E224" t="s">
-        <v>631</v>
+        <v>402</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="14"/>
@@ -8411,22 +8240,22 @@
       </c>
       <c r="O224" t="str">
         <f t="shared" si="16"/>
-        <v>'all menues':'svi meniji',</v>
+        <v>'all menues':'svi jelovnici',</v>
       </c>
     </row>
     <row r="225" spans="2:15">
       <c r="B225" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C225" s="4" t="str">
         <f t="shared" si="17"/>
         <v>client menues</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="E225" t="s">
-        <v>632</v>
+        <v>404</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="14"/>
@@ -8438,22 +8267,22 @@
       </c>
       <c r="O225" t="str">
         <f t="shared" si="16"/>
-        <v>'client menues':'klijentove menije',</v>
+        <v>'client menues':'klijentovi jelovnici',</v>
       </c>
     </row>
     <row r="226" spans="2:15">
       <c r="B226" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C226" s="4" t="str">
         <f t="shared" si="17"/>
         <v>save menu</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E226" t="s">
-        <v>633</v>
+        <v>406</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="I226" t="str">
         <f t="shared" si="14"/>
@@ -8465,22 +8294,22 @@
       </c>
       <c r="O226" t="str">
         <f t="shared" si="16"/>
-        <v>'save menu':'pripremite meni',</v>
+        <v>'save menu':'spremi jelovnik',</v>
       </c>
     </row>
     <row r="227" spans="2:15">
       <c r="B227" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C227" s="4" t="str">
         <f t="shared" si="17"/>
         <v>menu name</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E227" t="s">
-        <v>634</v>
+        <v>408</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="I227" t="str">
         <f t="shared" si="14"/>
@@ -8492,22 +8321,22 @@
       </c>
       <c r="O227" t="str">
         <f t="shared" si="16"/>
-        <v>'menu name':'ime menija',</v>
+        <v>'menu name':'naziv jelovnika',</v>
       </c>
     </row>
     <row r="228" spans="2:15">
       <c r="B228" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C228" s="4" t="str">
         <f t="shared" si="17"/>
         <v>note</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E228" t="s">
-        <v>635</v>
+        <v>409</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="I228" t="str">
         <f t="shared" si="14"/>
@@ -8519,22 +8348,22 @@
       </c>
       <c r="O228" t="str">
         <f t="shared" si="16"/>
-        <v>'note':'obaveštenje',</v>
+        <v>'note':'napomena',</v>
       </c>
     </row>
     <row r="229" spans="2:15">
       <c r="B229" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C229" s="4" t="str">
         <f t="shared" si="17"/>
         <v>save as new</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E229" t="s">
-        <v>636</v>
+        <v>412</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="I229" t="str">
         <f t="shared" si="14"/>
@@ -8546,22 +8375,22 @@
       </c>
       <c r="O229" t="str">
         <f t="shared" si="16"/>
-        <v>'save as new':'Sacuvaj kao novo',</v>
+        <v>'save as new':'spremi kao novi',</v>
       </c>
     </row>
     <row r="230" spans="2:15">
       <c r="B230" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C230" s="4" t="str">
         <f t="shared" si="17"/>
         <v>cancel</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E230" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I230" t="str">
         <f t="shared" si="14"/>
@@ -8578,17 +8407,17 @@
     </row>
     <row r="231" spans="2:15">
       <c r="B231" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C231" s="4" t="str">
         <f t="shared" si="17"/>
         <v>detail calculation of energy expenditure</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E231" t="s">
-        <v>637</v>
+        <v>417</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="I231" t="str">
         <f t="shared" si="14"/>
@@ -8600,22 +8429,22 @@
       </c>
       <c r="O231" t="str">
         <f t="shared" si="16"/>
-        <v>'detail calculation of energy expenditure':'detaljni proracun potrošnje energije',</v>
+        <v>'detail calculation of energy expenditure':'detaljni izračun energetske potrošnje',</v>
       </c>
     </row>
     <row r="232" spans="2:15">
       <c r="B232" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C232" s="4" t="str">
         <f t="shared" si="17"/>
         <v>activity duration</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E232" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I232" t="str">
         <f t="shared" si="14"/>
@@ -8632,17 +8461,17 @@
     </row>
     <row r="233" spans="2:15">
       <c r="B233" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C233" s="4" t="str">
         <f t="shared" si="17"/>
         <v>from</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E233" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I233" t="str">
         <f t="shared" si="14"/>
@@ -8659,17 +8488,17 @@
     </row>
     <row r="234" spans="2:15">
       <c r="B234" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C234" s="4" t="str">
         <f t="shared" si="17"/>
         <v>to</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E234" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I234" t="str">
         <f t="shared" si="14"/>
@@ -8686,17 +8515,17 @@
     </row>
     <row r="235" spans="2:15">
       <c r="B235" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C235" s="4" t="str">
         <f t="shared" si="17"/>
         <v>ok</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E235" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I235" t="str">
         <f t="shared" si="14"/>
@@ -8713,17 +8542,17 @@
     </row>
     <row r="236" spans="2:15">
       <c r="B236" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C236" s="4" t="str">
         <f t="shared" si="17"/>
         <v>daily activities</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E236" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I236" t="str">
         <f t="shared" si="14"/>
@@ -8740,17 +8569,17 @@
     </row>
     <row r="237" spans="2:15">
       <c r="B237" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C237" s="4" t="str">
         <f t="shared" si="17"/>
         <v>duration</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I237" t="str">
         <f t="shared" si="14"/>
@@ -8767,17 +8596,17 @@
     </row>
     <row r="238" spans="2:15">
       <c r="B238" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C238" s="4" t="str">
         <f t="shared" si="17"/>
         <v>min</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E238" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I238" t="str">
         <f t="shared" si="14"/>
@@ -8794,17 +8623,17 @@
     </row>
     <row r="239" spans="2:15">
       <c r="B239" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C239" s="4" t="str">
         <f t="shared" si="17"/>
         <v>kcal</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E239" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I239" t="str">
         <f t="shared" si="14"/>
@@ -8821,17 +8650,17 @@
     </row>
     <row r="240" spans="2:15">
       <c r="B240" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C240" s="4" t="str">
         <f t="shared" si="17"/>
         <v>big piece</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E240" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I240" t="str">
         <f t="shared" si="14"/>
@@ -8848,17 +8677,17 @@
     </row>
     <row r="241" spans="2:15">
       <c r="B241" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C241" s="4" t="str">
         <f t="shared" si="17"/>
         <v>prices</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E241" t="s">
-        <v>638</v>
+        <v>581</v>
       </c>
       <c r="I241" t="str">
         <f t="shared" si="14"/>
@@ -8875,17 +8704,17 @@
     </row>
     <row r="242" spans="2:15">
       <c r="B242" s="4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C242" s="4" t="str">
         <f t="shared" si="17"/>
         <v>net price</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E242" t="s">
-        <v>639</v>
+        <v>582</v>
       </c>
       <c r="I242" t="str">
         <f t="shared" si="14"/>
@@ -8902,17 +8731,17 @@
     </row>
     <row r="243" spans="2:15">
       <c r="B243" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C243" s="4" t="str">
         <f t="shared" si="17"/>
         <v>unit price</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E243" t="s">
-        <v>640</v>
+        <v>583</v>
       </c>
       <c r="I243" t="str">
         <f t="shared" si="14"/>
@@ -8929,17 +8758,17 @@
     </row>
     <row r="244" spans="2:15">
       <c r="B244" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C244" s="4" t="str">
         <f t="shared" si="17"/>
         <v>price list</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E244" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="I244" t="str">
         <f t="shared" si="14"/>
@@ -8956,17 +8785,17 @@
     </row>
     <row r="245" spans="2:15">
       <c r="B245" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C245" s="4" t="str">
         <f t="shared" si="17"/>
         <v>tracking of anthropometric measures</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E245" t="s">
-        <v>642</v>
+        <v>505</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="I245" t="str">
         <f t="shared" si="14"/>
@@ -8974,26 +8803,26 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" si="15"/>
-        <v>'tracking of anthropometric measures':'parćenje natropometrijskih parametara',</v>
+        <v>'tracking of anthropometric measures':'praćenje antropometrijskih parametara',</v>
       </c>
       <c r="O245" t="str">
         <f t="shared" si="16"/>
-        <v>'tracking of anthropometric measures':'papagaj natropometrijskih parametara',</v>
+        <v>'tracking of anthropometric measures':'praćenje antropometrijskih parametara',</v>
       </c>
     </row>
     <row r="246" spans="2:15">
       <c r="B246" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C246" s="4" t="str">
         <f t="shared" si="17"/>
         <v>measured value</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E246" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
       <c r="I246" t="str">
         <f t="shared" si="14"/>
@@ -9010,17 +8839,17 @@
     </row>
     <row r="247" spans="2:15">
       <c r="B247" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C247" s="4" t="str">
         <f t="shared" si="17"/>
         <v>limit</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E247" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="I247" t="str">
         <f t="shared" si="14"/>
@@ -9037,17 +8866,17 @@
     </row>
     <row r="248" spans="2:15">
       <c r="B248" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C248" s="4" t="str">
         <f t="shared" si="17"/>
         <v>birth date</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E248" t="s">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="I248" t="str">
         <f t="shared" si="14"/>
@@ -9064,17 +8893,17 @@
     </row>
     <row r="249" spans="2:15">
       <c r="B249" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C249" s="4" t="str">
         <f t="shared" si="17"/>
         <v>phone</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E249" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I249" t="str">
         <f t="shared" si="14"/>
@@ -9091,17 +8920,17 @@
     </row>
     <row r="250" spans="2:15">
       <c r="B250" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="4" t="str">
         <f t="shared" si="17"/>
         <v>email</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I250" t="str">
         <f t="shared" si="14"/>
@@ -9118,17 +8947,17 @@
     </row>
     <row r="251" spans="2:15">
       <c r="B251" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C251" s="4" t="str">
         <f t="shared" si="17"/>
         <v>confirm password</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E251" t="s">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="I251" t="str">
         <f t="shared" si="14"/>
@@ -9145,17 +8974,17 @@
     </row>
     <row r="252" spans="2:15">
       <c r="B252" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C252" s="4" t="str">
         <f t="shared" si="17"/>
         <v>register</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E252" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I252" t="str">
         <f t="shared" si="14"/>
@@ -9172,17 +9001,17 @@
     </row>
     <row r="253" spans="2:15">
       <c r="B253" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C253" s="4" t="str">
         <f t="shared" si="17"/>
         <v>enter</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E253" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I253" t="str">
         <f t="shared" si="14"/>
@@ -9199,17 +9028,17 @@
     </row>
     <row r="254" spans="2:15">
       <c r="B254" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C254" s="4" t="str">
         <f t="shared" si="17"/>
         <v>in demo version maximum number of choosen foods is 10</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E254" t="s">
-        <v>646</v>
+        <v>453</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="I254" t="str">
         <f t="shared" si="14"/>
@@ -9221,22 +9050,22 @@
       </c>
       <c r="O254" t="str">
         <f t="shared" si="16"/>
-        <v>'in demo version maximum number of choosen foods is 10':'u demo verziji maksimalan broj hrane po meniju je 10',</v>
+        <v>'in demo version maximum number of choosen foods is 10':'u demo verziji maksimalni broj namirnica po jelovniku je 10',</v>
       </c>
     </row>
     <row r="255" spans="2:15">
       <c r="B255" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C255" s="4" t="str">
         <f t="shared" si="17"/>
         <v>in demo version you can enter only one client</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>647</v>
+        <v>455</v>
       </c>
       <c r="I255" t="str">
         <f t="shared" si="14"/>
@@ -9248,22 +9077,22 @@
       </c>
       <c r="O255" t="str">
         <f t="shared" si="16"/>
-        <v>'in demo version you can enter only one client':'možete uneti samo jedan klijent u demo verziju',</v>
+        <v>'in demo version you can enter only one client':'u demo verziji možete unijeti samo jednog klijenta',</v>
       </c>
     </row>
     <row r="256" spans="2:15">
       <c r="B256" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C256" s="4" t="str">
         <f t="shared" si="17"/>
         <v>the start time and end of activity can not be the same</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E256" t="s">
-        <v>648</v>
+        <v>459</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="I256" t="str">
         <f t="shared" si="14"/>
@@ -9275,22 +9104,22 @@
       </c>
       <c r="O256" t="str">
         <f t="shared" si="16"/>
-        <v>'the start time and end of activity can not be the same':'pocetno vreme i kraj aktivnosti ne mogu biti isti',</v>
+        <v>'the start time and end of activity can not be the same':'vreme početka i kraja aktivnosti ne može biti jednako',</v>
       </c>
     </row>
     <row r="257" spans="2:15">
       <c r="B257" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C257" s="4" t="str">
         <f t="shared" si="17"/>
         <v>send order</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E257" t="s">
-        <v>649</v>
+        <v>458</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="I257" t="str">
         <f t="shared" si="14"/>
@@ -9302,22 +9131,22 @@
       </c>
       <c r="O257" t="str">
         <f t="shared" si="16"/>
-        <v>'send order':'pošaljite nalog',</v>
+        <v>'send order':'pošalji narudžbu',</v>
       </c>
     </row>
     <row r="258" spans="2:15">
       <c r="B258" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C258" s="4" t="str">
         <f t="shared" si="17"/>
         <v>max number of users is</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E258" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="I258" t="str">
         <f t="shared" si="14"/>
@@ -9334,17 +9163,17 @@
     </row>
     <row r="259" spans="2:15">
       <c r="B259" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C259" s="4" t="str">
         <f t="shared" si="17"/>
         <v>no</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E259" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I259" t="str">
         <f t="shared" si="14"/>
@@ -9361,17 +9190,17 @@
     </row>
     <row r="260" spans="2:15">
       <c r="B260" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C260" s="4" t="str">
         <f t="shared" si="17"/>
         <v>delete user</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="E260" t="s">
-        <v>651</v>
+        <v>465</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="I260" t="str">
         <f t="shared" si="14"/>
@@ -9383,22 +9212,22 @@
       </c>
       <c r="O260" t="str">
         <f t="shared" si="16"/>
-        <v>'delete user':'izbrisati korisnika',</v>
+        <v>'delete user':'izbriši korisnika',</v>
       </c>
     </row>
     <row r="261" spans="2:15">
       <c r="B261" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C261" s="4" t="str">
         <f t="shared" si="17"/>
         <v>choose meals</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E261" t="s">
-        <v>652</v>
+        <v>589</v>
       </c>
       <c r="I261" t="str">
         <f t="shared" si="14"/>
@@ -9415,17 +9244,17 @@
     </row>
     <row r="262" spans="2:15">
       <c r="B262" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C262" s="4" t="str">
         <f t="shared" si="17"/>
         <v>saved</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E262" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I262" t="str">
         <f t="shared" ref="I262:I326" si="18">"'"&amp;$B262&amp;"':"&amp;"'"&amp;C262&amp;"',"</f>
@@ -9442,17 +9271,17 @@
     </row>
     <row r="263" spans="2:15">
       <c r="B263" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C263" s="4" t="str">
         <f t="shared" si="17"/>
         <v>delete food</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E263" t="s">
-        <v>653</v>
+        <v>471</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="I263" t="str">
         <f t="shared" si="18"/>
@@ -9464,22 +9293,22 @@
       </c>
       <c r="O263" t="str">
         <f t="shared" si="20"/>
-        <v>'delete food':'ocistite hranu',</v>
+        <v>'delete food':'briši namirnicu',</v>
       </c>
     </row>
     <row r="264" spans="2:15">
       <c r="B264" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C264" s="4" t="str">
         <f t="shared" si="17"/>
         <v>remove menu</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="E264" t="s">
-        <v>654</v>
+        <v>473</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="I264" t="str">
         <f t="shared" si="18"/>
@@ -9491,22 +9320,22 @@
       </c>
       <c r="O264" t="str">
         <f t="shared" si="20"/>
-        <v>'remove menu':'izbrišite meni',</v>
+        <v>'remove menu':'briši jelovnik',</v>
       </c>
     </row>
     <row r="265" spans="2:15">
       <c r="B265" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C265" s="4" t="str">
         <f t="shared" si="17"/>
         <v>all fields are required</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E265" t="s">
-        <v>655</v>
+        <v>477</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="I265" t="str">
         <f t="shared" si="18"/>
@@ -9518,22 +9347,22 @@
       </c>
       <c r="O265" t="str">
         <f t="shared" si="20"/>
-        <v>'all fields are required':'Sva polja su obavezna',</v>
+        <v>'all fields are required':'sva polja su obavezna',</v>
       </c>
     </row>
     <row r="266" spans="2:15">
       <c r="B266" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C266" s="4" t="str">
         <f t="shared" si="17"/>
         <v>passwords are not the same</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="E266" t="s">
-        <v>656</v>
+        <v>475</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="I266" t="str">
         <f t="shared" si="18"/>
@@ -9545,22 +9374,22 @@
       </c>
       <c r="O266" t="str">
         <f t="shared" si="20"/>
-        <v>'passwords are not the same':'Lozinke nisu iste',</v>
+        <v>'passwords are not the same':'lozinke nisu jednake',</v>
       </c>
     </row>
     <row r="267" spans="2:15">
       <c r="B267" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C267" s="4" t="str">
         <f t="shared" si="17"/>
         <v>price</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E267" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
       <c r="I267" t="str">
         <f t="shared" si="18"/>
@@ -9577,17 +9406,17 @@
     </row>
     <row r="268" spans="2:15">
       <c r="B268" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C268" s="4" t="str">
         <f t="shared" si="17"/>
         <v>foods</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E268" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I268" t="str">
         <f t="shared" si="18"/>
@@ -9604,17 +9433,17 @@
     </row>
     <row r="269" spans="2:15">
       <c r="B269" s="4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C269" s="4" t="str">
         <f t="shared" si="17"/>
         <v>your account will be active within 24 hours of your payment or after you send payment confirmation on email</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E269" t="s">
-        <v>658</v>
+        <v>485</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="I269" t="str">
         <f t="shared" si="18"/>
@@ -9626,22 +9455,22 @@
       </c>
       <c r="O269" t="str">
         <f t="shared" si="20"/>
-        <v>'your account will be active within 24 hours of your payment or after you send payment confirmation on email':'vaš racun c´e biti aktivan u roku od 24 casa od prijema plac´anja ili nakon što nam pošaljete potvrdu o plac´anju na e-poštu',</v>
+        <v>'your account will be active within 24 hours of your payment or after you send payment confirmation on email':'vaš korisnički račun će biti aktivan unutar 24 sata od primitka uplate ili nakon što nam pošaljete potvrdu o uplati na email',</v>
       </c>
     </row>
     <row r="270" spans="2:15">
       <c r="B270" s="4" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C270" s="4" t="str">
         <f t="shared" si="17"/>
         <v>the order have been sent successfully</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="E270" t="s">
-        <v>659</v>
+        <v>487</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="I270" t="str">
         <f t="shared" si="18"/>
@@ -9653,22 +9482,22 @@
       </c>
       <c r="O270" t="str">
         <f t="shared" si="20"/>
-        <v>'the order have been sent successfully':'nalog je uspešno poslat',</v>
+        <v>'the order have been sent successfully':'narudžba je uspješno poslata',</v>
       </c>
     </row>
     <row r="271" spans="2:15">
       <c r="B271" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C271" s="4" t="str">
         <f t="shared" si="17"/>
         <v>renew now</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E271" t="s">
-        <v>660</v>
+        <v>591</v>
       </c>
       <c r="I271" t="str">
         <f t="shared" si="18"/>
@@ -9685,17 +9514,17 @@
     </row>
     <row r="272" spans="2:15">
       <c r="B272" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C272" s="4" t="str">
         <f t="shared" si="17"/>
         <v>sending</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E272" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="I272" t="str">
         <f t="shared" si="18"/>
@@ -9712,17 +9541,17 @@
     </row>
     <row r="273" spans="2:15">
       <c r="B273" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C273" s="4" t="str">
         <f t="shared" si="17"/>
         <v>user</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E273" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I273" t="str">
         <f t="shared" si="18"/>
@@ -9739,17 +9568,17 @@
     </row>
     <row r="274" spans="2:15">
       <c r="B274" s="4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C274" s="4" t="str">
         <f t="shared" si="17"/>
         <v>the selected additional energy expenditure is the same as recommended</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="E274" t="s">
-        <v>661</v>
+        <v>497</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="I274" t="str">
         <f t="shared" si="18"/>
@@ -9761,22 +9590,22 @@
       </c>
       <c r="O274" t="str">
         <f t="shared" si="20"/>
-        <v>'the selected additional energy expenditure is the same as recommended':'izabrana dodatna potrošnja energije je vec´a od preporucene',</v>
+        <v>'the selected additional energy expenditure is the same as recommended':'odabrana dodatna energetska potrošnja je veća od preporućene',</v>
       </c>
     </row>
     <row r="275" spans="2:15">
       <c r="B275" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C275" s="4" t="str">
         <f t="shared" si="17"/>
         <v>clients</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E275" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I275" t="str">
         <f t="shared" si="18"/>
@@ -9793,17 +9622,17 @@
     </row>
     <row r="276" spans="2:15">
       <c r="B276" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C276" s="4" t="str">
         <f t="shared" si="17"/>
         <v>web</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E276" t="s">
-        <v>662</v>
+        <v>500</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="I276" t="str">
         <f t="shared" si="18"/>
@@ -9815,22 +9644,22 @@
       </c>
       <c r="O276" t="str">
         <f t="shared" si="20"/>
-        <v>'web':'veb',</v>
+        <v>'web':'web',</v>
       </c>
     </row>
     <row r="277" spans="2:15">
       <c r="B277" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C277" s="4" t="str">
         <f t="shared" si="17"/>
         <v>show all</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E277" t="s">
-        <v>663</v>
+        <v>592</v>
       </c>
       <c r="I277" t="str">
         <f t="shared" si="18"/>
@@ -9847,17 +9676,17 @@
     </row>
     <row r="278" spans="2:15">
       <c r="B278" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C278" s="4" t="str">
         <f t="shared" si="17"/>
         <v>tracking of anthropometric measures</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="E278" t="s">
-        <v>664</v>
+        <v>505</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="I278" t="str">
         <f t="shared" si="18"/>
@@ -9869,22 +9698,22 @@
       </c>
       <c r="O278" t="str">
         <f t="shared" si="20"/>
-        <v>'tracking of anthropometric measures':'prac´enje antropometrijskih parametara',</v>
+        <v>'tracking of anthropometric measures':'praćenje antropometrijskih parametara',</v>
       </c>
     </row>
     <row r="279" spans="2:15">
       <c r="B279" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C279" s="4" t="str">
         <f t="shared" ref="C279:C343" si="21">B279</f>
         <v>price</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E279" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
       <c r="I279" t="str">
         <f t="shared" si="18"/>
@@ -9901,17 +9730,17 @@
     </row>
     <row r="280" spans="2:15">
       <c r="B280" s="4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C280" s="4" t="str">
         <f t="shared" si="21"/>
         <v>gender</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E280" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="I280" t="str">
         <f t="shared" si="18"/>
@@ -9928,17 +9757,17 @@
     </row>
     <row r="281" spans="2:15">
       <c r="B281" s="4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C281" s="4" t="str">
         <f t="shared" si="21"/>
         <v>y</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E281" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="I281" t="str">
         <f t="shared" si="18"/>
@@ -9955,17 +9784,17 @@
     </row>
     <row r="282" spans="2:15">
       <c r="B282" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C282" s="4" t="str">
         <f t="shared" si="21"/>
         <v>content</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E282" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="18"/>
@@ -9982,17 +9811,17 @@
     </row>
     <row r="283" spans="2:15">
       <c r="B283" s="4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C283" s="4" t="str">
         <f t="shared" si="21"/>
         <v>admin type</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E283" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I283" t="str">
         <f t="shared" si="18"/>
@@ -10009,17 +9838,17 @@
     </row>
     <row r="284" spans="2:15">
       <c r="B284" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C284" s="4" t="str">
         <f t="shared" si="21"/>
         <v>company name</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E284" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="I284" t="str">
         <f t="shared" si="18"/>
@@ -10031,22 +9860,22 @@
       </c>
       <c r="O284" t="str">
         <f t="shared" si="20"/>
-        <v>'company name':'ime kompanije',</v>
+        <v>'company name':'ime preduzeća',</v>
       </c>
     </row>
     <row r="285" spans="2:15">
       <c r="B285" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C285" s="4" t="str">
         <f t="shared" si="21"/>
         <v>activation date</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E285" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I285" t="str">
         <f t="shared" si="18"/>
@@ -10063,17 +9892,17 @@
     </row>
     <row r="286" spans="2:15">
       <c r="B286" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C286" s="4" t="str">
         <f t="shared" si="21"/>
         <v>expiration date</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E286" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="I286" t="str">
         <f t="shared" si="18"/>
@@ -10090,17 +9919,17 @@
     </row>
     <row r="287" spans="2:15">
       <c r="B287" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C287" s="4" t="str">
         <f t="shared" si="21"/>
         <v>is active</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E287" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="I287" t="str">
         <f t="shared" si="18"/>
@@ -10117,17 +9946,17 @@
     </row>
     <row r="288" spans="2:15">
       <c r="B288" s="4" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C288" s="4" t="str">
         <f t="shared" si="21"/>
         <v>user group</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="E288" t="s">
-        <v>667</v>
+        <v>521</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="I288" t="str">
         <f t="shared" si="18"/>
@@ -10139,22 +9968,22 @@
       </c>
       <c r="O288" t="str">
         <f t="shared" si="20"/>
-        <v>'user group':'korisnicka grupa',</v>
+        <v>'user group':'grupa korisnika',</v>
       </c>
     </row>
     <row r="289" spans="2:15">
       <c r="B289" s="4" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C289" s="4" t="str">
         <f t="shared" si="21"/>
         <v>supervisor</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E289" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I289" t="str">
         <f t="shared" si="18"/>
@@ -10171,17 +10000,17 @@
     </row>
     <row r="290" spans="2:15">
       <c r="B290" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C290" s="4" t="str">
         <f t="shared" si="21"/>
         <v>admin</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E290" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I290" t="str">
         <f t="shared" si="18"/>
@@ -10198,17 +10027,17 @@
     </row>
     <row r="291" spans="2:15">
       <c r="B291" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C291" s="4" t="str">
         <f t="shared" si="21"/>
         <v>delete input</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E291" t="s">
-        <v>668</v>
+        <v>529</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="I291" t="str">
         <f t="shared" si="18"/>
@@ -10220,22 +10049,22 @@
       </c>
       <c r="O291" t="str">
         <f t="shared" si="20"/>
-        <v>'delete input':'Brush entri',</v>
+        <v>'delete input':'brmiši unos',</v>
       </c>
     </row>
     <row r="292" spans="2:15">
       <c r="B292" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C292" s="4" t="str">
         <f t="shared" si="21"/>
         <v>mono u/f</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="E292" t="s">
-        <v>669</v>
+        <v>534</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="I292" t="str">
         <f t="shared" si="18"/>
@@ -10247,22 +10076,22 @@
       </c>
       <c r="O292" t="str">
         <f t="shared" si="20"/>
-        <v>'mono u/f':'jedan n / m',</v>
+        <v>'mono u/f':'jednostruko n/m',</v>
       </c>
     </row>
     <row r="293" spans="2:15">
       <c r="B293" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C293" s="4" t="str">
         <f t="shared" si="21"/>
         <v>poly u/f</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="E293" t="s">
-        <v>670</v>
+        <v>535</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="I293" t="str">
         <f t="shared" si="18"/>
@@ -10274,22 +10103,22 @@
       </c>
       <c r="O293" t="str">
         <f t="shared" si="20"/>
-        <v>'poly u/f':'više n / m',</v>
+        <v>'poly u/f':'višestruko n/m',</v>
       </c>
     </row>
     <row r="294" spans="2:15">
       <c r="B294" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C294" s="4" t="str">
         <f t="shared" si="21"/>
         <v>title</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E294" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="18"/>
@@ -10306,17 +10135,17 @@
     </row>
     <row r="295" spans="2:15">
       <c r="B295" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C295" s="4" t="str">
         <f t="shared" si="21"/>
         <v>new food</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E295" t="s">
-        <v>671</v>
+        <v>539</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="I295" t="str">
         <f t="shared" si="18"/>
@@ -10328,19 +10157,19 @@
       </c>
       <c r="O295" t="str">
         <f t="shared" si="20"/>
-        <v>'new food':'nova hrana',</v>
+        <v>'new food':'nova namirnica',</v>
       </c>
     </row>
     <row r="296" spans="2:15">
       <c r="B296" s="4" t="s">
-        <v>681</v>
+        <v>602</v>
       </c>
       <c r="C296" s="4" t="str">
         <f t="shared" si="21"/>
         <v>croatian</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>682</v>
+        <v>603</v>
       </c>
       <c r="E296" t="str">
         <f t="shared" ref="E296:E343" si="22">D296</f>
@@ -10361,14 +10190,14 @@
     </row>
     <row r="297" spans="2:15">
       <c r="B297" s="4" t="s">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="C297" s="4" t="str">
         <f t="shared" si="21"/>
         <v>serbian</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>680</v>
+        <v>601</v>
       </c>
       <c r="E297" t="str">
         <f t="shared" si="22"/>
@@ -10388,47 +10217,58 @@
       </c>
     </row>
     <row r="298" spans="2:15">
-      <c r="C298" s="4">
+      <c r="B298" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C298" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E298">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>nutrition plan web</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E298" t="s">
+        <v>623</v>
       </c>
       <c r="I298" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'nutrition plan web':'nutrition plan web',</v>
       </c>
       <c r="L298" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'nutrition plan web':'program prehrane web',</v>
       </c>
       <c r="O298" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'nutrition plan web':'plan ishrane web',</v>
       </c>
     </row>
     <row r="299" spans="2:15">
-      <c r="C299" s="4">
+      <c r="B299" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C299" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E299">
+        <v>delete choosen activity</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E299" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>briši odabranu aktivnost</v>
       </c>
       <c r="I299" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'delete choosen activity':'delete choosen activity',</v>
       </c>
       <c r="L299" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'delete choosen activity':'briši odabranu aktivnost',</v>
       </c>
       <c r="O299" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'delete choosen activity':'briši odabranu aktivnost',</v>
       </c>
     </row>
     <row r="300" spans="2:15">

--- a/files/Translations.xlsx
+++ b/files/Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="630">
   <si>
     <t>TranslateId</t>
   </si>
@@ -1894,6 +1894,18 @@
   </si>
   <si>
     <t>briši odabranu aktivnost</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>engleski</t>
+  </si>
+  <si>
+    <t>detail calculation</t>
+  </si>
+  <si>
+    <t>detaljni izračun</t>
   </si>
 </sst>
 </file>
@@ -2238,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q389"/>
+  <dimension ref="B3:Q390"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9257,15 +9269,15 @@
         <v>469</v>
       </c>
       <c r="I262" t="str">
-        <f t="shared" ref="I262:I326" si="18">"'"&amp;$B262&amp;"':"&amp;"'"&amp;C262&amp;"',"</f>
+        <f t="shared" ref="I262:I327" si="18">"'"&amp;$B262&amp;"':"&amp;"'"&amp;C262&amp;"',"</f>
         <v>'saved':'saved',</v>
       </c>
       <c r="L262" t="str">
-        <f t="shared" ref="L262:L326" si="19">"'"&amp;$B262&amp;"':"&amp;"'"&amp;D262&amp;"',"</f>
+        <f t="shared" ref="L262:L327" si="19">"'"&amp;$B262&amp;"':"&amp;"'"&amp;D262&amp;"',"</f>
         <v>'saved':'spremljeno',</v>
       </c>
       <c r="O262" t="str">
-        <f t="shared" ref="O262:O326" si="20">"'"&amp;$B262&amp;"':"&amp;"'"&amp;E262&amp;"',"</f>
+        <f t="shared" ref="O262:O327" si="20">"'"&amp;$B262&amp;"':"&amp;"'"&amp;E262&amp;"',"</f>
         <v>'saved':'spremljeno',</v>
       </c>
     </row>
@@ -9706,7 +9718,7 @@
         <v>480</v>
       </c>
       <c r="C279" s="4" t="str">
-        <f t="shared" ref="C279:C343" si="21">B279</f>
+        <f t="shared" ref="C279:C344" si="21">B279</f>
         <v>price</v>
       </c>
       <c r="D279" s="4" t="s">
@@ -10172,7 +10184,7 @@
         <v>603</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" ref="E296:E343" si="22">D296</f>
+        <f t="shared" ref="E296:E344" si="22">D296</f>
         <v>hrvatski</v>
       </c>
       <c r="I296" t="str">
@@ -10218,101 +10230,93 @@
     </row>
     <row r="298" spans="2:15">
       <c r="B298" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="299" spans="2:15">
+      <c r="B299" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="C298" s="4" t="str">
+      <c r="C299" s="4" t="str">
         <f t="shared" si="21"/>
         <v>nutrition plan web</v>
       </c>
-      <c r="D298" s="4" t="s">
+      <c r="D299" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E299" t="s">
         <v>623</v>
       </c>
-      <c r="I298" t="str">
+      <c r="I299" t="str">
         <f t="shared" si="18"/>
         <v>'nutrition plan web':'nutrition plan web',</v>
       </c>
-      <c r="L298" t="str">
+      <c r="L299" t="str">
         <f t="shared" si="19"/>
         <v>'nutrition plan web':'program prehrane web',</v>
       </c>
-      <c r="O298" t="str">
+      <c r="O299" t="str">
         <f t="shared" si="20"/>
         <v>'nutrition plan web':'plan ishrane web',</v>
       </c>
     </row>
-    <row r="299" spans="2:15">
-      <c r="B299" s="4" t="s">
+    <row r="300" spans="2:15">
+      <c r="B300" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C299" s="4" t="str">
+      <c r="C300" s="4" t="str">
         <f t="shared" si="21"/>
         <v>delete choosen activity</v>
       </c>
-      <c r="D299" s="4" t="s">
+      <c r="D300" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E299" t="str">
+      <c r="E300" t="str">
         <f t="shared" si="22"/>
         <v>briši odabranu aktivnost</v>
       </c>
-      <c r="I299" t="str">
+      <c r="I300" t="str">
         <f t="shared" si="18"/>
         <v>'delete choosen activity':'delete choosen activity',</v>
       </c>
-      <c r="L299" t="str">
+      <c r="L300" t="str">
         <f t="shared" si="19"/>
         <v>'delete choosen activity':'briši odabranu aktivnost',</v>
       </c>
-      <c r="O299" t="str">
+      <c r="O300" t="str">
         <f t="shared" si="20"/>
         <v>'delete choosen activity':'briši odabranu aktivnost',</v>
       </c>
     </row>
-    <row r="300" spans="2:15">
-      <c r="C300" s="4">
+    <row r="301" spans="2:15">
+      <c r="B301" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C301" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E300">
+        <v>detail calculation</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E301" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I300" t="str">
-        <f t="shared" si="18"/>
-        <v>'':'0',</v>
-      </c>
-      <c r="L300" t="str">
-        <f t="shared" si="19"/>
-        <v>'':'',</v>
-      </c>
-      <c r="O300" t="str">
-        <f t="shared" si="20"/>
-        <v>'':'0',</v>
-      </c>
-    </row>
-    <row r="301" spans="2:15">
-      <c r="C301" s="4">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E301">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>detaljni izračun</v>
       </c>
       <c r="I301" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'detail calculation':'detail calculation',</v>
       </c>
       <c r="L301" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'detail calculation':'detaljni izračun',</v>
       </c>
       <c r="O301" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'detail calculation':'detaljni izračun',</v>
       </c>
     </row>
     <row r="302" spans="2:15">
@@ -10875,15 +10879,15 @@
         <v>0</v>
       </c>
       <c r="I327" t="str">
-        <f t="shared" ref="I327:I389" si="23">"'"&amp;$B327&amp;"':"&amp;"'"&amp;C327&amp;"',"</f>
+        <f t="shared" si="18"/>
         <v>'':'0',</v>
       </c>
       <c r="L327" t="str">
-        <f t="shared" ref="L327:L389" si="24">"'"&amp;$B327&amp;"':"&amp;"'"&amp;D327&amp;"',"</f>
+        <f t="shared" si="19"/>
         <v>'':'',</v>
       </c>
       <c r="O327" t="str">
-        <f t="shared" ref="O327:O389" si="25">"'"&amp;$B327&amp;"':"&amp;"'"&amp;E327&amp;"',"</f>
+        <f t="shared" si="20"/>
         <v>'':'0',</v>
       </c>
     </row>
@@ -10897,15 +10901,15 @@
         <v>0</v>
       </c>
       <c r="I328" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="I328:I390" si="23">"'"&amp;$B328&amp;"':"&amp;"'"&amp;C328&amp;"',"</f>
         <v>'':'0',</v>
       </c>
       <c r="L328" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="L328:L390" si="24">"'"&amp;$B328&amp;"':"&amp;"'"&amp;D328&amp;"',"</f>
         <v>'':'',</v>
       </c>
       <c r="O328" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="O328:O390" si="25">"'"&amp;$B328&amp;"':"&amp;"'"&amp;E328&amp;"',"</f>
         <v>'':'0',</v>
       </c>
     </row>
@@ -11241,11 +11245,11 @@
     </row>
     <row r="344" spans="3:15">
       <c r="C344" s="4">
-        <f t="shared" ref="C344:C389" si="26">B344</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" ref="E344:E389" si="27">D344</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I344" t="str">
@@ -11263,11 +11267,11 @@
     </row>
     <row r="345" spans="3:15">
       <c r="C345" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="C345:C390" si="26">B345</f>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="E345:E390" si="27">D345</f>
         <v>0</v>
       </c>
       <c r="I345" t="str">
@@ -12247,6 +12251,28 @@
         <v>'':'',</v>
       </c>
       <c r="O389" t="str">
+        <f t="shared" si="25"/>
+        <v>'':'0',</v>
+      </c>
+    </row>
+    <row r="390" spans="3:15">
+      <c r="C390" s="4">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="str">
+        <f t="shared" si="23"/>
+        <v>'':'0',</v>
+      </c>
+      <c r="L390" t="str">
+        <f t="shared" si="24"/>
+        <v>'':'',</v>
+      </c>
+      <c r="O390" t="str">
         <f t="shared" si="25"/>
         <v>'':'0',</v>
       </c>

--- a/files/Translations.xlsx
+++ b/files/Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="646">
   <si>
     <t>TranslateId</t>
   </si>
@@ -1906,6 +1906,54 @@
   </si>
   <si>
     <t>detaljni izračun</t>
+  </si>
+  <si>
+    <t>snižena telesna masa</t>
+  </si>
+  <si>
+    <t>settings saved successfully</t>
+  </si>
+  <si>
+    <t>postavke uspješno spremljene</t>
+  </si>
+  <si>
+    <t>postavke uspešno spremljene</t>
+  </si>
+  <si>
+    <t>if you do not know the value of unit servings, the food will be included in the group</t>
+  </si>
+  <si>
+    <t>ukoliko vam nisu poznate vrijednosti jediničnih serviranja, namirnica će biti uvrštena u skupinu</t>
+  </si>
+  <si>
+    <t>ukoliko vam nisu poznate vrednosti jediničnih serviranja, namirnica će biti uvršćena u skupinu</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>If the value of a particular parameter is unknown, leave zero</t>
+  </si>
+  <si>
+    <t>ako vrijednost određenog parametra nije poznata, ostavite nulu</t>
+  </si>
+  <si>
+    <t>ako vrednost određenog parametra nije poznata, ostavite nulu</t>
+  </si>
+  <si>
+    <t>my menues</t>
+  </si>
+  <si>
+    <t>moji jelovnici</t>
+  </si>
+  <si>
+    <t>menu examples</t>
+  </si>
+  <si>
+    <t>primjeri jelovnika</t>
+  </si>
+  <si>
+    <t>primeri jelovnika</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7268,7 +7316,7 @@
         <v>331</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>331</v>
+        <v>630</v>
       </c>
       <c r="I188" t="str">
         <f t="shared" si="9"/>
@@ -7280,7 +7328,7 @@
       </c>
       <c r="O188" t="str">
         <f t="shared" si="11"/>
-        <v>'underweight':'snižena tjelesna masa',</v>
+        <v>'underweight':'snižena telesna masa',</v>
       </c>
     </row>
     <row r="189" spans="2:15">
@@ -10320,138 +10368,170 @@
       </c>
     </row>
     <row r="302" spans="2:15">
-      <c r="C302" s="4">
+      <c r="B302" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C302" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>settings saved successfully</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E302" t="s">
+        <v>633</v>
       </c>
       <c r="I302" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'settings saved successfully':'settings saved successfully',</v>
       </c>
       <c r="L302" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'settings saved successfully':'postavke uspješno spremljene',</v>
       </c>
       <c r="O302" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'settings saved successfully':'postavke uspešno spremljene',</v>
       </c>
     </row>
     <row r="303" spans="2:15">
-      <c r="C303" s="4">
+      <c r="B303" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C303" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>if you do not know the value of unit servings, the food will be included in the group</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>636</v>
       </c>
       <c r="I303" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'if you do not know the value of unit servings, the food will be included in the group':'if you do not know the value of unit servings, the food will be included in the group',</v>
       </c>
       <c r="L303" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'if you do not know the value of unit servings, the food will be included in the group':'ukoliko vam nisu poznate vrijednosti jediničnih serviranja, namirnica će biti uvrštena u skupinu',</v>
       </c>
       <c r="O303" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'if you do not know the value of unit servings, the food will be included in the group':'ukoliko vam nisu poznate vrednosti jediničnih serviranja, namirnica će biti uvršćena u skupinu',</v>
       </c>
     </row>
     <row r="304" spans="2:15">
-      <c r="C304" s="4">
+      <c r="B304" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C304" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E304">
+        <v>mass</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E304" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>masa</v>
       </c>
       <c r="I304" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'mass':'mass',</v>
       </c>
       <c r="L304" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'mass':'masa',</v>
       </c>
       <c r="O304" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
-      </c>
-    </row>
-    <row r="305" spans="3:15">
-      <c r="C305" s="4">
+        <v>'mass':'masa',</v>
+      </c>
+    </row>
+    <row r="305" spans="2:15">
+      <c r="B305" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C305" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E305">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>If the value of a particular parameter is unknown, leave zero</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="I305" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'If the value of a particular parameter is unknown, leave zero':'If the value of a particular parameter is unknown, leave zero',</v>
       </c>
       <c r="L305" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'If the value of a particular parameter is unknown, leave zero':'ako vrijednost određenog parametra nije poznata, ostavite nulu',</v>
       </c>
       <c r="O305" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
-      </c>
-    </row>
-    <row r="306" spans="3:15">
-      <c r="C306" s="4">
+        <v>'If the value of a particular parameter is unknown, leave zero':'ako vrednost određenog parametra nije poznata, ostavite nulu',</v>
+      </c>
+    </row>
+    <row r="306" spans="2:15">
+      <c r="B306" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C306" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E306">
+        <v>my menues</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E306" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>moji jelovnici</v>
       </c>
       <c r="I306" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'my menues':'my menues',</v>
       </c>
       <c r="L306" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'my menues':'moji jelovnici',</v>
       </c>
       <c r="O306" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
-      </c>
-    </row>
-    <row r="307" spans="3:15">
-      <c r="C307" s="4">
+        <v>'my menues':'moji jelovnici',</v>
+      </c>
+    </row>
+    <row r="307" spans="2:15">
+      <c r="B307" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C307" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E307">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>menu examples</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E307" t="s">
+        <v>645</v>
       </c>
       <c r="I307" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'menu examples':'menu examples',</v>
       </c>
       <c r="L307" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'menu examples':'primjeri jelovnika',</v>
       </c>
       <c r="O307" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
-      </c>
-    </row>
-    <row r="308" spans="3:15">
+        <v>'menu examples':'primeri jelovnika',</v>
+      </c>
+    </row>
+    <row r="308" spans="2:15">
       <c r="C308" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10473,7 +10553,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="309" spans="3:15">
+    <row r="309" spans="2:15">
       <c r="C309" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10495,7 +10575,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="310" spans="3:15">
+    <row r="310" spans="2:15">
       <c r="C310" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10517,7 +10597,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="311" spans="3:15">
+    <row r="311" spans="2:15">
       <c r="C311" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10539,7 +10619,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="312" spans="3:15">
+    <row r="312" spans="2:15">
       <c r="C312" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10561,7 +10641,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="313" spans="3:15">
+    <row r="313" spans="2:15">
       <c r="C313" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10583,7 +10663,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="314" spans="3:15">
+    <row r="314" spans="2:15">
       <c r="C314" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10605,7 +10685,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="315" spans="3:15">
+    <row r="315" spans="2:15">
       <c r="C315" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10627,7 +10707,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="316" spans="3:15">
+    <row r="316" spans="2:15">
       <c r="C316" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10649,7 +10729,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="317" spans="3:15">
+    <row r="317" spans="2:15">
       <c r="C317" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10671,7 +10751,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="318" spans="3:15">
+    <row r="318" spans="2:15">
       <c r="C318" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10693,7 +10773,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="319" spans="3:15">
+    <row r="319" spans="2:15">
       <c r="C319" s="4">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -10715,7 +10795,7 @@
         <v>'':'0',</v>
       </c>
     </row>
-    <row r="320" spans="3:15">
+    <row r="320" spans="2:15">
       <c r="C320" s="4">
         <f t="shared" si="21"/>
         <v>0</v>

--- a/files/Translations.xlsx
+++ b/files/Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="658">
   <si>
     <t>TranslateId</t>
   </si>
@@ -1954,6 +1954,42 @@
   </si>
   <si>
     <t>primeri jelovnika</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>obrok</t>
+  </si>
+  <si>
+    <t>energy value</t>
+  </si>
+  <si>
+    <t>energetska vrijednost</t>
+  </si>
+  <si>
+    <t>energetska vrednost</t>
+  </si>
+  <si>
+    <t>recommended dietary allowance</t>
+  </si>
+  <si>
+    <t>preporućena dnevna količina</t>
+  </si>
+  <si>
+    <t>minimum dietary allowance</t>
+  </si>
+  <si>
+    <t>minimalna dnevna potreba</t>
+  </si>
+  <si>
+    <t>upper intake level</t>
+  </si>
+  <si>
+    <t>najveći prihvatljiv dnevni unos</t>
+  </si>
+  <si>
+    <t>ul</t>
   </si>
 </sst>
 </file>
@@ -2300,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8204,10 +8240,10 @@
         <v>totals</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
       <c r="E221" t="s">
-        <v>123</v>
+        <v>578</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="14"/>
@@ -8215,11 +8251,11 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" si="15"/>
-        <v>'totals':'ukupno',</v>
+        <v>'totals':'ukupne vrijednosti',</v>
       </c>
       <c r="O221" t="str">
         <f t="shared" si="16"/>
-        <v>'totals':'ukupno',</v>
+        <v>'totals':'ukupne vrednosti',</v>
       </c>
     </row>
     <row r="222" spans="2:15">
@@ -10532,135 +10568,170 @@
       </c>
     </row>
     <row r="308" spans="2:15">
-      <c r="C308" s="4">
+      <c r="B308" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C308" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E308">
+        <v>meal</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E308" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>obrok</v>
       </c>
       <c r="I308" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'meal':'meal',</v>
       </c>
       <c r="L308" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'meal':'obrok',</v>
       </c>
       <c r="O308" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'meal':'obrok',</v>
       </c>
     </row>
     <row r="309" spans="2:15">
-      <c r="C309" s="4">
+      <c r="B309" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C309" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E309">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <v>energy value</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E309" t="s">
+        <v>650</v>
       </c>
       <c r="I309" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'energy value':'energy value',</v>
       </c>
       <c r="L309" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'energy value':'energetska vrijednost',</v>
       </c>
       <c r="O309" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'energy value':'energetska vrednost',</v>
       </c>
     </row>
     <row r="310" spans="2:15">
-      <c r="C310" s="4">
+      <c r="B310" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C310" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E310">
+        <v>recommended dietary allowance</v>
+      </c>
+      <c r="D310" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E310" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>preporućena dnevna količina</v>
       </c>
       <c r="I310" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'recommended dietary allowance':'recommended dietary allowance',</v>
       </c>
       <c r="L310" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'recommended dietary allowance':'preporućena dnevna količina',</v>
       </c>
       <c r="O310" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'recommended dietary allowance':'preporućena dnevna količina',</v>
       </c>
     </row>
     <row r="311" spans="2:15">
-      <c r="C311" s="4">
+      <c r="B311" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C311" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E311">
+        <v>minimum dietary allowance</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E311" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>minimalna dnevna potreba</v>
       </c>
       <c r="I311" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'minimum dietary allowance':'minimum dietary allowance',</v>
       </c>
       <c r="L311" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'minimum dietary allowance':'minimalna dnevna potreba',</v>
       </c>
       <c r="O311" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'minimum dietary allowance':'minimalna dnevna potreba',</v>
       </c>
     </row>
     <row r="312" spans="2:15">
-      <c r="C312" s="4">
+      <c r="B312" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C312" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E312">
+        <v>upper intake level</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E312" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>najveći prihvatljiv dnevni unos</v>
       </c>
       <c r="I312" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'upper intake level':'upper intake level',</v>
       </c>
       <c r="L312" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'upper intake level':'najveći prihvatljiv dnevni unos',</v>
       </c>
       <c r="O312" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'upper intake level':'najveći prihvatljiv dnevni unos',</v>
       </c>
     </row>
     <row r="313" spans="2:15">
-      <c r="C313" s="4">
+      <c r="B313" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C313" s="4" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E313">
+        <v>ul</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E313" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>ul</v>
       </c>
       <c r="I313" t="str">
         <f t="shared" si="18"/>
-        <v>'':'0',</v>
+        <v>'ul':'ul',</v>
       </c>
       <c r="L313" t="str">
         <f t="shared" si="19"/>
-        <v>'':'',</v>
+        <v>'ul':'ul',</v>
       </c>
       <c r="O313" t="str">
         <f t="shared" si="20"/>
-        <v>'':'0',</v>
+        <v>'ul':'ul',</v>
       </c>
     </row>
     <row r="314" spans="2:15">
